--- a/806209426/localisation/excel/england_events_l_german.xlsx
+++ b/806209426/localisation/excel/england_events_l_german.xlsx
@@ -28,61 +28,61 @@
     <t xml:space="preserve"> englandmod.1.t:0</t>
   </si>
   <si>
-    <t xml:space="preserve">England Asks To Join Axis</t>
+    <t xml:space="preserve">England bittet um Beitritt zur Achse</t>
   </si>
   <si>
     <t xml:space="preserve"> englandmod.1.d:0</t>
   </si>
   <si>
-    <t xml:space="preserve">A representative from [ENG.GetName] has just arrived. [ENG.GetName] has recently undergone a strong ultra-nationalist movement and wishes to join The Reich and the Axis in guiding the future of the world.</t>
+    <t xml:space="preserve">Ein Vertreter von [ENG.GetName] ist soeben eingetroffen. [ENG.GetName] hat kürzlich eine starke ultranationalistische Bewegung erlebt und möchte sich dem Reich und der Achse anschließen, um die Zukunft der Welt zu lenken.</t>
   </si>
   <si>
     <t xml:space="preserve"> englandmod.1.a:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Accept</t>
+    <t xml:space="preserve">Annehmen</t>
   </si>
   <si>
     <t xml:space="preserve"> englandmod.1.b:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Refuse.</t>
+    <t xml:space="preserve">Ablehnen.</t>
   </si>
   <si>
     <t xml:space="preserve"> englandmod.2.t:0</t>
   </si>
   <si>
-    <t xml:space="preserve">[From.GetNameDefCap] Requests lease of the Azores</t>
+    <t xml:space="preserve">[From.GetNameDefCap] bittet um Pacht der Azoren</t>
   </si>
   <si>
     <t xml:space="preserve"> englandmod.2.d:0</t>
   </si>
   <si>
-    <t xml:space="preserve">A representative from [ENG.GetName] approached us with a request to lease the Azores for the duration of the war. The strategic location of the islands makes them an important base from which to guard the sea lanes across the Atlantic.. [ENG.GetName] has implied it may use force if we don't agree as the bases are important for their war against [GER.GetName] in the Atlantic.</t>
+    <t xml:space="preserve">Ein Vertreter von [ENG.GetName] ist mit der Bitte an uns herangetreten, die Azoren für die Dauer des Krieges zu pachten. Die strategische Lage der Inseln macht sie zu einem wichtigen Stützpunkt, von dem aus die Seewege über den Atlantik überwacht werden können. [ENG.GetName] hat angedeutet, dass sie Gewalt anwenden könnten, wenn wir nicht zustimmen, da die Stützpunkte für ihren Krieg gegen [GER.GetName] im Atlantik wichtig sind.</t>
   </si>
   <si>
     <t xml:space="preserve"> englandmod.2.a:0</t>
   </si>
   <si>
-    <t xml:space="preserve">We will aid our British friends.</t>
+    <t xml:space="preserve">Wir werden unsere britischen Freunde unterstützen.</t>
   </si>
   <si>
     <t xml:space="preserve"> englandmod.2.b:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Not a chance.</t>
+    <t xml:space="preserve">Keine Chance.</t>
   </si>
   <si>
     <t xml:space="preserve"> englandmod.3.t:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Portugal Accepts!</t>
+    <t xml:space="preserve">Portugal nimmt an!</t>
   </si>
   <si>
     <t xml:space="preserve"> englandmod.3.d:0</t>
   </si>
   <si>
-    <t xml:space="preserve">The [From.GetAdjective] government has approved our request and given us full control over the Azores, with the understanding that we are now responsible for defending them from any attack. A small advance party has already arrived on the islands to set up a base of operations! The U-boat threat in the Atlantic just got a lot less scary.</t>
+    <t xml:space="preserve">Die [From.GetAdjective]-Regierung hat unserem Ersuchen zugestimmt und uns die volle Kontrolle über die Azoren übertragen, mit der Maßgabe, dass wir von nun an dafür verantwortlich sind, sie gegen jeden Angriff zu verteidigen. Ein kleines Vorauskommando ist bereits auf den Inseln eingetroffen, um eine Operationsbasis einzurichten! Die Bedrohung durch U-Boote im Atlantik ist jetzt viel weniger beängstigend.</t>
   </si>
   <si>
     <t xml:space="preserve"> englandmod.3.a:0</t>
@@ -94,103 +94,100 @@
     <t xml:space="preserve"> englandmod.4.t:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Portugal Refuses!</t>
+    <t xml:space="preserve">Portugal lehnt ab!</t>
   </si>
   <si>
     <t xml:space="preserve"> englandmod.4.d:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Portugal has rejected our request to lease the Azores Island naval and air bases! The U-boat threat in the Atlantic just got a lot more scary.</t>
+    <t xml:space="preserve">Portugal hat unseren Antrag auf Anmietung der Marine- und Luftwaffenstützpunkte auf den Azoren abgelehnt! Die U-Boot-Bedrohung im Atlantik ist jetzt noch viel beängstigender.</t>
   </si>
   <si>
     <t xml:space="preserve"> englandmod.4.a:0</t>
   </si>
   <si>
-    <t xml:space="preserve">How unfortunate.</t>
+    <t xml:space="preserve">Wie bedauerlich.</t>
   </si>
   <si>
     <t xml:space="preserve"> englandmod.5.t:0</t>
   </si>
   <si>
-    <t xml:space="preserve">The British Demand Our Annexation</t>
+    <t xml:space="preserve">Die Briten fordern unsere Annexion</t>
   </si>
   <si>
     <t xml:space="preserve"> englandmod.5.d:0</t>
   </si>
   <si>
-    <t xml:space="preserve">A British delegate arrived in Dublin this morning. The effects of the ultra-nationalist movement in Britain has finally come to our doorstep, as London demands our immediate annexation. We don't know if the French or Americans will come to our defense, and have a tough decision to make.</t>
+    <t xml:space="preserve">Ein britischer Delegierter ist heute Morgen in Dublin eingetroffen. Die Auswirkungen der ultranationalistischen Bewegung in Großbritannien sind nun endlich auch bei uns angekommen, denn London fordert unsere sofortige Annexion. Wir wissen nicht, ob die Franzosen oder die Amerikaner sich für uns einsetzen werden, und müssen eine schwere Entscheidung treffen.</t>
   </si>
   <si>
     <t xml:space="preserve"> englandmod.5.a:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Give in to their demands.</t>
+    <t xml:space="preserve">Ihren Forderungen nachgeben.</t>
   </si>
   <si>
     <t xml:space="preserve"> englandmod.5.b:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Fat chance.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> englandmod.6.t:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Ireland Gives In!</t>
+    <t xml:space="preserve">Irland lenkt ein!</t>
   </si>
   <si>
     <t xml:space="preserve"> englandmod.6.d:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Our delegate from Dublin has arrived with fantastic news! The weak Irish have decided to accept our demand for their immediate Annexation. We can now move on to the next phase of our plan.</t>
+    <t xml:space="preserve">Unser Delegierter aus Dublin ist mit fantastischen Neuigkeiten eingetroffen! Die schwachen Iren haben beschlossen, unsere Forderung nach einer sofortigen Annexion zu akzeptieren. Wir können nun zur nächsten Phase unseres Plans übergehen.</t>
   </si>
   <si>
     <t xml:space="preserve"> englandmod.6.a:0</t>
   </si>
   <si>
-    <t xml:space="preserve">They made a smart choice.</t>
+    <t xml:space="preserve">Sie haben eine kluge Entscheidung getroffen.</t>
   </si>
   <si>
     <t xml:space="preserve"> englandmod.7.t:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Ireland Refuses Our Demands!</t>
+    <t xml:space="preserve">Irland lehnt unsere Forderungen ab!</t>
   </si>
   <si>
     <t xml:space="preserve"> englandmod.7.d:0</t>
   </si>
   <si>
-    <t xml:space="preserve">In a pathetic, final attempt at bravery, the foolish Irish government has refused our demand for annexation. What's more, they have decided to mobilize their armed forces in case of a British attack.</t>
+    <t xml:space="preserve">In einem erbärmlichen, letzten Versuch der Tapferkeit hat die törichte irische Regierung unsere Forderung nach einer Annexion abgelehnt. Mehr noch, sie hat beschlossen, ihre Streitkräfte für den Fall eines britischen Angriffs zu mobilisieren.</t>
   </si>
   <si>
     <t xml:space="preserve"> englandmod.7.a:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Are they suicidal?</t>
+    <t xml:space="preserve">Sind sie selbstmörderisch?</t>
   </si>
   <si>
     <t xml:space="preserve"> englandmod.8.t:0</t>
   </si>
   <si>
-    <t xml:space="preserve">The British Propose An Alliance</t>
+    <t xml:space="preserve">Die Briten schlagen ein Bündnis vor</t>
   </si>
   <si>
     <t xml:space="preserve"> englandmod.8.d:0</t>
   </si>
   <si>
-    <t xml:space="preserve">A British delegate arrived in Lisbon this morning. If it wasn't clear enough already with their meddling with Spanish politics, they now seek to influence our own and offer us an alliance.</t>
+    <t xml:space="preserve">Heute Morgen ist ein britischer Delegierter in Lissabon eingetroffen. Als ob die Einmischung der Briten in die spanische Politik nicht schon deutlich genug wäre, versuchen sie nun auch noch, Einfluss auf unsere Politik zu nehmen und bieten uns ein Bündnis an.</t>
   </si>
   <si>
     <t xml:space="preserve"> englandmod.8.a:0</t>
   </si>
   <si>
-    <t xml:space="preserve">We accept!</t>
+    <t xml:space="preserve">Wir nehmen an!</t>
   </si>
   <si>
     <t xml:space="preserve"> englandmod.8.b:0</t>
   </si>
   <si>
-    <t xml:space="preserve">We will take no part in this.</t>
+    <t xml:space="preserve">Wir werden uns nicht daran beteiligen.</t>
   </si>
   <si>
     <t xml:space="preserve"> englandmod.9.t:0</t>
@@ -199,13 +196,13 @@
     <t xml:space="preserve"> englandmod.9.d:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Portugal has accepted our alliance offer! Once again the Portuguese and British stand side by side against their adversaries!</t>
+    <t xml:space="preserve">Portugal hat unser Bündnisangebot angenommen! Wieder einmal stehen die Portugiesen und die Briten Seite an Seite gegen ihre Widersacher!</t>
   </si>
   <si>
     <t xml:space="preserve"> englandmod.9.a:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Huzzah!</t>
+    <t xml:space="preserve">Hurra!</t>
   </si>
   <si>
     <t xml:space="preserve"> englandmod.10.t:0</t>
@@ -214,13 +211,13 @@
     <t xml:space="preserve"> englandmod.10.d:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Portugal has refused our alliance offer! They have proven to be useless to us!</t>
+    <t xml:space="preserve">Portugal hat unser Bündnisangebot abgelehnt! Sie haben bewiesen, dass sie für uns nutzlos sind!</t>
   </si>
   <si>
     <t xml:space="preserve"> englandmod.10.a:0</t>
   </si>
   <si>
-    <t xml:space="preserve">If you're not with us you're against us.</t>
+    <t xml:space="preserve">Wenn ihr nicht für uns seid, seid ihr gegen uns.</t>
   </si>
   <si>
     <t xml:space="preserve"> englandmod.11.t:0</t>
@@ -229,7 +226,7 @@
     <t xml:space="preserve"> englandmod.11.d:0</t>
   </si>
   <si>
-    <t xml:space="preserve">A British delegate arrived in Rome this morning. The British are starting to focus their efforts in the Mediterranean and would like to propose an alliance. While we don't want to antagonize them, if we agree to an alliance it could undermine some of our claims...</t>
+    <t xml:space="preserve">Ein britischer Delegierter ist heute Morgen in Rom eingetroffen. Die Briten beginnen, ihre Bemühungen im Mittelmeerraum zu konzentrieren und möchten ein Bündnis vorschlagen. Wir wollen sie zwar nicht verärgern, aber wenn wir einem Bündnis zustimmen, könnte es einige unserer Ansprüche untergraben...</t>
   </si>
   <si>
     <t xml:space="preserve"> englandmod.11.a:0</t>
@@ -238,19 +235,19 @@
     <t xml:space="preserve"> englandmod.11.b:0</t>
   </si>
   <si>
-    <t xml:space="preserve">No way.</t>
+    <t xml:space="preserve">Auf keinen Fall.</t>
   </si>
   <si>
     <t xml:space="preserve"> englandmod.12.t:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Italy Accepts!</t>
+    <t xml:space="preserve">Italien nimmt an!</t>
   </si>
   <si>
     <t xml:space="preserve"> englandmod.12.d:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Italy has accepted our alliance offer! Together we will share hegemony!</t>
+    <t xml:space="preserve">Italien hat unser Bündnisangebot angenommen! Gemeinsam werden wir uns die Hegemonie teilen!</t>
   </si>
   <si>
     <t xml:space="preserve"> englandmod.12.a:0</t>
@@ -259,13 +256,13 @@
     <t xml:space="preserve"> englandmod.13.t:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Italy Refuses!</t>
+    <t xml:space="preserve">Italien lehnt ab!</t>
   </si>
   <si>
     <t xml:space="preserve"> englandmod.13.d:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Italy has refused our alliance offer! They have proven to be useless to us!</t>
+    <t xml:space="preserve">Italien hat unser Bündnisangebot abgelehnt! Sie haben bewiesen, dass sie für uns nutzlos sind!</t>
   </si>
   <si>
     <t xml:space="preserve"> englandmod.13.a:0</t>
@@ -277,7 +274,7 @@
     <t xml:space="preserve"> englandmod.14.d:0</t>
   </si>
   <si>
-    <t xml:space="preserve">A British delegate arrived in Warsaw this morning. The British expect that eventually the Germans will declare war on one of its neighbors, and they assume that will be us. They propose an alliance to deter the Germans from attacking, but we also feel like they will lead us down a dark path eventually....</t>
+    <t xml:space="preserve">Ein britischer Delegierter ist heute Morgen in Warschau eingetroffen. Die Briten erwarten, dass die Deutschen irgendwann einem ihrer Nachbarn den Krieg erklären werden, und sie gehen davon aus, dass das wir sein werden. Sie schlagen ein Bündnis vor, um die Deutschen von einem Angriff abzuhalten, aber wir haben auch das Gefühl, dass sie uns auf einen dunklen Pfad führen werden. ....</t>
   </si>
   <si>
     <t xml:space="preserve"> englandmod.14.a:0</t>
@@ -286,16 +283,19 @@
     <t xml:space="preserve"> englandmod.14.b:0</t>
   </si>
   <si>
+    <t xml:space="preserve">Das geht nicht.</t>
+  </si>
+  <si>
     <t xml:space="preserve"> englandmod.15.t:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Poland Accepts!</t>
+    <t xml:space="preserve">Polen nimmt an!</t>
   </si>
   <si>
     <t xml:space="preserve"> englandmod.15.d:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Poland has accepted our alliance offer! Together we will defeat the Germans!</t>
+    <t xml:space="preserve">Polen hat unser Bündnisangebot angenommen! Gemeinsam werden wir die Deutschen besiegen!</t>
   </si>
   <si>
     <t xml:space="preserve"> englandmod.15.a:0</t>
@@ -304,13 +304,13 @@
     <t xml:space="preserve"> englandmod.16.t:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Poland Refuses!</t>
+    <t xml:space="preserve">Polen lehnt ab!</t>
   </si>
   <si>
     <t xml:space="preserve"> englandmod.16.d:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Poland has refused our alliance offer! They have proven to be useless to us!</t>
+    <t xml:space="preserve">Polen hat unser Bündnisangebot abgelehnt! Sie haben bewiesen, dass sie für uns nutzlos sind!</t>
   </si>
   <si>
     <t xml:space="preserve"> englandmod.16.a:0</t>
@@ -319,37 +319,37 @@
     <t xml:space="preserve"> englandmod.17.t:0</t>
   </si>
   <si>
-    <t xml:space="preserve">British Alliance Offer</t>
+    <t xml:space="preserve">Britisches Bündnisangebot</t>
   </si>
   <si>
     <t xml:space="preserve"> englandmod.17.d:0</t>
   </si>
   <si>
-    <t xml:space="preserve">A British delegate arrived in Tokyo yesterday. It appears the British feel renewing the Japanese-Anglo alliance would serve both countries well. Could they also be considering a war with the United States?</t>
+    <t xml:space="preserve">Ein britischer Delegierter traf gestern in Tokio ein. Anscheinend sind die Briten der Meinung, dass eine Erneuerung des japanisch-angloamerikanischen Bündnisses beiden Ländern gut tun würde. Könnten sie auch einen Krieg mit den Vereinigten Staaten in Betracht ziehen?</t>
   </si>
   <si>
     <t xml:space="preserve"> englandmod.17.a:0</t>
   </si>
   <si>
-    <t xml:space="preserve">We agree to renewing the alliance.</t>
+    <t xml:space="preserve">Wir sind mit der Erneuerung des Bündnisses einverstanden.</t>
   </si>
   <si>
     <t xml:space="preserve"> englandmod.17.b:0</t>
   </si>
   <si>
-    <t xml:space="preserve">We don't need them.</t>
+    <t xml:space="preserve">Wir brauchen sie nicht.</t>
   </si>
   <si>
     <t xml:space="preserve"> englandmod.18.t:0</t>
   </si>
   <si>
-    <t xml:space="preserve">The Japanese Accept!</t>
+    <t xml:space="preserve">Die Japaner sind einverstanden!</t>
   </si>
   <si>
     <t xml:space="preserve"> englandmod.18.d:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Good news! Japan has accepted our alliance offer! With our combined might the Americans will surely fall!</t>
+    <t xml:space="preserve">Gute Nachrichten! Japan hat unser Bündnisangebot angenommen! Mit unserer vereinten Kraft werden die Amerikaner sicher fallen!</t>
   </si>
   <si>
     <t xml:space="preserve"> englandmod.18.a:0</t>
@@ -358,19 +358,19 @@
     <t xml:space="preserve"> englandmod.19.t:0</t>
   </si>
   <si>
-    <t xml:space="preserve">The Japanese Refuse!</t>
+    <t xml:space="preserve">Die Japaner lehnen ab!</t>
   </si>
   <si>
     <t xml:space="preserve"> englandmod.19.d:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Bad news! Japan has refused our alliance offer. Do they not realize the sleeping giant will soon wake?</t>
+    <t xml:space="preserve">Schlechte Nachrichten! Japan hat unser Bündnisangebot abgelehnt. Ist ihnen nicht klar, dass der schlafende Riese bald erwachen wird?</t>
   </si>
   <si>
     <t xml:space="preserve"> englandmod.19.a:0</t>
   </si>
   <si>
-    <t xml:space="preserve">It's their funeral.</t>
+    <t xml:space="preserve">Es ist ihre Beerdigung.</t>
   </si>
   <si>
     <t xml:space="preserve"> englandmod.20.t:0</t>
@@ -379,31 +379,31 @@
     <t xml:space="preserve"> englandmod.20.d:0</t>
   </si>
   <si>
-    <t xml:space="preserve">A British delegate arrived in Caracas yesterday. It appears the British feel a military alliance between our two nations would be mutually beneficial. Could they also be considering a war with the United States?</t>
+    <t xml:space="preserve">Ein britischer Delegierter traf gestern in Caracas ein. Anscheinend sind die Briten der Meinung, dass ein Militärbündnis zwischen unseren beiden Nationen für beide Seiten von Vorteil wäre. Könnte es sein, dass sie auch einen Krieg mit den Vereinigten Staaten in Betracht ziehen?</t>
   </si>
   <si>
     <t xml:space="preserve"> englandmod.20.a:0</t>
   </si>
   <si>
-    <t xml:space="preserve">We agree to join!</t>
+    <t xml:space="preserve">Wir sind bereit, uns anzuschließen!</t>
   </si>
   <si>
     <t xml:space="preserve"> englandmod.20.b:0</t>
   </si>
   <si>
-    <t xml:space="preserve">No thanks</t>
+    <t xml:space="preserve">Nein danke!</t>
   </si>
   <si>
     <t xml:space="preserve"> englandmod.21.t:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Venezuela Accepts!</t>
+    <t xml:space="preserve">Venezuela nimmt an!</t>
   </si>
   <si>
     <t xml:space="preserve"> englandmod.21.d:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Good news! Venezuela has accepted our alliance offer! They will prove useful as a base from which to strike the western hemipshere.</t>
+    <t xml:space="preserve">Gute Nachrichten! Venezuela hat unser Bündnisangebot angenommen! Es wird sich als nützliche Basis erweisen, von der aus wir die westliche Hemisphäre angreifen können.</t>
   </si>
   <si>
     <t xml:space="preserve"> englandmod.21.a:0</t>
@@ -412,37 +412,37 @@
     <t xml:space="preserve"> englandmod.22.t:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Venezuela Refuses!</t>
+    <t xml:space="preserve">Venezuela lehnt ab!</t>
   </si>
   <si>
     <t xml:space="preserve"> englandmod.22.d:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Bad news! Venezuela has refused our alliance offer. Do they not realize the sleeping giant will soon wake?</t>
+    <t xml:space="preserve">Schlechte Nachrichten! Venezuela hat unser Bündnisangebot abgelehnt. Ist ihnen nicht klar, dass der schlafende Riese bald erwachen wird?</t>
   </si>
   <si>
     <t xml:space="preserve"> englandmod.22.a:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Whatever</t>
+    <t xml:space="preserve">Was auch immer</t>
   </si>
   <si>
     <t xml:space="preserve"> englandmod.23.t:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Strenghtening our Military Presence</t>
+    <t xml:space="preserve">Verstärkung unserer Militärpräsenz</t>
   </si>
   <si>
     <t xml:space="preserve"> englandmod.23.d:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Several officers have already made their way to these remote islands to help organize the garrisons and local militias. These brave men are now under your command and awaiting orders.</t>
+    <t xml:space="preserve">Mehrere Offiziere haben sich bereits auf den Weg zu diesen abgelegenen Inseln gemacht, um bei der Organisation der Garnisonen und lokalen Milizen zu helfen. Diese tapferen Männer stehen nun unter Eurem Kommando und warten auf Befehle.</t>
   </si>
   <si>
     <t xml:space="preserve"> englandmod.23.a:0</t>
   </si>
   <si>
-    <t xml:space="preserve">The Empire shall never be defeated!</t>
+    <t xml:space="preserve">Das Imperium wird niemals besiegt werden!</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -665,8 +665,8 @@
   </sheetPr>
   <dimension ref="A1:D499"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D78" activeCellId="0" sqref="D1:D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -698,11 +698,11 @@
       </c>
       <c r="C2" s="1" t="str">
         <f aca="false">A2 &amp;" " &amp;"""" &amp;B2 &amp;""""</f>
-        <v> englandmod.1.t:0 "England Asks To Join Axis"</v>
+        <v> englandmod.1.t:0 "England bittet um Beitritt zur Achse"</v>
       </c>
       <c r="D2" s="1" t="str">
         <f aca="false">IF(ISBLANK(A2),"",C2)</f>
-        <v> englandmod.1.t:0 "England Asks To Join Axis"</v>
+        <v> englandmod.1.t:0 "England bittet um Beitritt zur Achse"</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -714,11 +714,11 @@
       </c>
       <c r="C3" s="1" t="str">
         <f aca="false">A3 &amp;" " &amp;"""" &amp;B3 &amp;""""</f>
-        <v> englandmod.1.d:0 "A representative from [ENG.GetName] has just arrived. [ENG.GetName] has recently undergone a strong ultra-nationalist movement and wishes to join The Reich and the Axis in guiding the future of the world."</v>
+        <v> englandmod.1.d:0 "Ein Vertreter von [ENG.GetName] ist soeben eingetroffen. [ENG.GetName] hat kürzlich eine starke ultranationalistische Bewegung erlebt und möchte sich dem Reich und der Achse anschließen, um die Zukunft der Welt zu lenken."</v>
       </c>
       <c r="D3" s="1" t="str">
         <f aca="false">IF(ISBLANK(A3),"",C3)</f>
-        <v> englandmod.1.d:0 "A representative from [ENG.GetName] has just arrived. [ENG.GetName] has recently undergone a strong ultra-nationalist movement and wishes to join The Reich and the Axis in guiding the future of the world."</v>
+        <v> englandmod.1.d:0 "Ein Vertreter von [ENG.GetName] ist soeben eingetroffen. [ENG.GetName] hat kürzlich eine starke ultranationalistische Bewegung erlebt und möchte sich dem Reich und der Achse anschließen, um die Zukunft der Welt zu lenken."</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -730,11 +730,11 @@
       </c>
       <c r="C4" s="1" t="str">
         <f aca="false">A4 &amp;" " &amp;"""" &amp;B4 &amp;""""</f>
-        <v> englandmod.1.a:0 "Accept"</v>
+        <v> englandmod.1.a:0 "Annehmen"</v>
       </c>
       <c r="D4" s="1" t="str">
         <f aca="false">IF(ISBLANK(A4),"",C4)</f>
-        <v> englandmod.1.a:0 "Accept"</v>
+        <v> englandmod.1.a:0 "Annehmen"</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -746,11 +746,11 @@
       </c>
       <c r="C5" s="1" t="str">
         <f aca="false">A5 &amp;" " &amp;"""" &amp;B5 &amp;""""</f>
-        <v> englandmod.1.b:0 "Refuse."</v>
+        <v> englandmod.1.b:0 "Ablehnen."</v>
       </c>
       <c r="D5" s="1" t="str">
         <f aca="false">IF(ISBLANK(A5),"",C5)</f>
-        <v> englandmod.1.b:0 "Refuse."</v>
+        <v> englandmod.1.b:0 "Ablehnen."</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -762,11 +762,11 @@
       </c>
       <c r="C6" s="1" t="str">
         <f aca="false">A6 &amp;" " &amp;"""" &amp;B6 &amp;""""</f>
-        <v> englandmod.2.t:0 "[From.GetNameDefCap] Requests lease of the Azores"</v>
+        <v> englandmod.2.t:0 "[From.GetNameDefCap] bittet um Pacht der Azoren"</v>
       </c>
       <c r="D6" s="1" t="str">
         <f aca="false">IF(ISBLANK(A6),"",C6)</f>
-        <v> englandmod.2.t:0 "[From.GetNameDefCap] Requests lease of the Azores"</v>
+        <v> englandmod.2.t:0 "[From.GetNameDefCap] bittet um Pacht der Azoren"</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -778,11 +778,11 @@
       </c>
       <c r="C7" s="1" t="str">
         <f aca="false">A7 &amp;" " &amp;"""" &amp;B7 &amp;""""</f>
-        <v> englandmod.2.d:0 "A representative from [ENG.GetName] approached us with a request to lease the Azores for the duration of the war. The strategic location of the islands makes them an important base from which to guard the sea lanes across the Atlantic.. [ENG.GetName] has implied it may use force if we don't agree as the bases are important for their war against [GER.GetName] in the Atlantic."</v>
+        <v> englandmod.2.d:0 "Ein Vertreter von [ENG.GetName] ist mit der Bitte an uns herangetreten, die Azoren für die Dauer des Krieges zu pachten. Die strategische Lage der Inseln macht sie zu einem wichtigen Stützpunkt, von dem aus die Seewege über den Atlantik überwacht werden können. [ENG.GetName] hat angedeutet, dass sie Gewalt anwenden könnten, wenn wir nicht zustimmen, da die Stützpunkte für ihren Krieg gegen [GER.GetName] im Atlantik wichtig sind."</v>
       </c>
       <c r="D7" s="1" t="str">
         <f aca="false">IF(ISBLANK(A7),"",C7)</f>
-        <v> englandmod.2.d:0 "A representative from [ENG.GetName] approached us with a request to lease the Azores for the duration of the war. The strategic location of the islands makes them an important base from which to guard the sea lanes across the Atlantic.. [ENG.GetName] has implied it may use force if we don't agree as the bases are important for their war against [GER.GetName] in the Atlantic."</v>
+        <v> englandmod.2.d:0 "Ein Vertreter von [ENG.GetName] ist mit der Bitte an uns herangetreten, die Azoren für die Dauer des Krieges zu pachten. Die strategische Lage der Inseln macht sie zu einem wichtigen Stützpunkt, von dem aus die Seewege über den Atlantik überwacht werden können. [ENG.GetName] hat angedeutet, dass sie Gewalt anwenden könnten, wenn wir nicht zustimmen, da die Stützpunkte für ihren Krieg gegen [GER.GetName] im Atlantik wichtig sind."</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -794,11 +794,11 @@
       </c>
       <c r="C8" s="1" t="str">
         <f aca="false">A8 &amp;" " &amp;"""" &amp;B8 &amp;""""</f>
-        <v> englandmod.2.a:0 "We will aid our British friends."</v>
+        <v> englandmod.2.a:0 "Wir werden unsere britischen Freunde unterstützen."</v>
       </c>
       <c r="D8" s="1" t="str">
         <f aca="false">IF(ISBLANK(A8),"",C8)</f>
-        <v> englandmod.2.a:0 "We will aid our British friends."</v>
+        <v> englandmod.2.a:0 "Wir werden unsere britischen Freunde unterstützen."</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -810,11 +810,11 @@
       </c>
       <c r="C9" s="1" t="str">
         <f aca="false">A9 &amp;" " &amp;"""" &amp;B9 &amp;""""</f>
-        <v> englandmod.2.b:0 "Not a chance."</v>
+        <v> englandmod.2.b:0 "Keine Chance."</v>
       </c>
       <c r="D9" s="1" t="str">
         <f aca="false">IF(ISBLANK(A9),"",C9)</f>
-        <v> englandmod.2.b:0 "Not a chance."</v>
+        <v> englandmod.2.b:0 "Keine Chance."</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -826,11 +826,11 @@
       </c>
       <c r="C10" s="1" t="str">
         <f aca="false">A10 &amp;" " &amp;"""" &amp;B10 &amp;""""</f>
-        <v> englandmod.3.t:0 "Portugal Accepts!"</v>
+        <v> englandmod.3.t:0 "Portugal nimmt an!"</v>
       </c>
       <c r="D10" s="1" t="str">
         <f aca="false">IF(ISBLANK(A10),"",C10)</f>
-        <v> englandmod.3.t:0 "Portugal Accepts!"</v>
+        <v> englandmod.3.t:0 "Portugal nimmt an!"</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -842,11 +842,11 @@
       </c>
       <c r="C11" s="1" t="str">
         <f aca="false">A11 &amp;" " &amp;"""" &amp;B11 &amp;""""</f>
-        <v> englandmod.3.d:0 "The [From.GetAdjective] government has approved our request and given us full control over the Azores, with the understanding that we are now responsible for defending them from any attack. A small advance party has already arrived on the islands to set up a base of operations! The U-boat threat in the Atlantic just got a lot less scary."</v>
+        <v> englandmod.3.d:0 "Die [From.GetAdjective]-Regierung hat unserem Ersuchen zugestimmt und uns die volle Kontrolle über die Azoren übertragen, mit der Maßgabe, dass wir von nun an dafür verantwortlich sind, sie gegen jeden Angriff zu verteidigen. Ein kleines Vorauskommando ist bereits auf den Inseln eingetroffen, um eine Operationsbasis einzurichten! Die Bedrohung durch U-Boote im Atlantik ist jetzt viel weniger beängstigend."</v>
       </c>
       <c r="D11" s="1" t="str">
         <f aca="false">IF(ISBLANK(A11),"",C11)</f>
-        <v> englandmod.3.d:0 "The [From.GetAdjective] government has approved our request and given us full control over the Azores, with the understanding that we are now responsible for defending them from any attack. A small advance party has already arrived on the islands to set up a base of operations! The U-boat threat in the Atlantic just got a lot less scary."</v>
+        <v> englandmod.3.d:0 "Die [From.GetAdjective]-Regierung hat unserem Ersuchen zugestimmt und uns die volle Kontrolle über die Azoren übertragen, mit der Maßgabe, dass wir von nun an dafür verantwortlich sind, sie gegen jeden Angriff zu verteidigen. Ein kleines Vorauskommando ist bereits auf den Inseln eingetroffen, um eine Operationsbasis einzurichten! Die Bedrohung durch U-Boote im Atlantik ist jetzt viel weniger beängstigend."</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -874,11 +874,11 @@
       </c>
       <c r="C13" s="1" t="str">
         <f aca="false">A13 &amp;" " &amp;"""" &amp;B13 &amp;""""</f>
-        <v> englandmod.4.t:0 "Portugal Refuses!"</v>
+        <v> englandmod.4.t:0 "Portugal lehnt ab!"</v>
       </c>
       <c r="D13" s="1" t="str">
         <f aca="false">IF(ISBLANK(A13),"",C13)</f>
-        <v> englandmod.4.t:0 "Portugal Refuses!"</v>
+        <v> englandmod.4.t:0 "Portugal lehnt ab!"</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -890,11 +890,11 @@
       </c>
       <c r="C14" s="1" t="str">
         <f aca="false">A14 &amp;" " &amp;"""" &amp;B14 &amp;""""</f>
-        <v> englandmod.4.d:0 "Portugal has rejected our request to lease the Azores Island naval and air bases! The U-boat threat in the Atlantic just got a lot more scary."</v>
+        <v> englandmod.4.d:0 "Portugal hat unseren Antrag auf Anmietung der Marine- und Luftwaffenstützpunkte auf den Azoren abgelehnt! Die U-Boot-Bedrohung im Atlantik ist jetzt noch viel beängstigender."</v>
       </c>
       <c r="D14" s="1" t="str">
         <f aca="false">IF(ISBLANK(A14),"",C14)</f>
-        <v> englandmod.4.d:0 "Portugal has rejected our request to lease the Azores Island naval and air bases! The U-boat threat in the Atlantic just got a lot more scary."</v>
+        <v> englandmod.4.d:0 "Portugal hat unseren Antrag auf Anmietung der Marine- und Luftwaffenstützpunkte auf den Azoren abgelehnt! Die U-Boot-Bedrohung im Atlantik ist jetzt noch viel beängstigender."</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -906,11 +906,11 @@
       </c>
       <c r="C15" s="1" t="str">
         <f aca="false">A15 &amp;" " &amp;"""" &amp;B15 &amp;""""</f>
-        <v> englandmod.4.a:0 "How unfortunate."</v>
+        <v> englandmod.4.a:0 "Wie bedauerlich."</v>
       </c>
       <c r="D15" s="1" t="str">
         <f aca="false">IF(ISBLANK(A15),"",C15)</f>
-        <v> englandmod.4.a:0 "How unfortunate."</v>
+        <v> englandmod.4.a:0 "Wie bedauerlich."</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -922,11 +922,11 @@
       </c>
       <c r="C16" s="1" t="str">
         <f aca="false">A16 &amp;" " &amp;"""" &amp;B16 &amp;""""</f>
-        <v> englandmod.5.t:0 "The British Demand Our Annexation"</v>
+        <v> englandmod.5.t:0 "Die Briten fordern unsere Annexion"</v>
       </c>
       <c r="D16" s="1" t="str">
         <f aca="false">IF(ISBLANK(A16),"",C16)</f>
-        <v> englandmod.5.t:0 "The British Demand Our Annexation"</v>
+        <v> englandmod.5.t:0 "Die Briten fordern unsere Annexion"</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -938,11 +938,11 @@
       </c>
       <c r="C17" s="1" t="str">
         <f aca="false">A17 &amp;" " &amp;"""" &amp;B17 &amp;""""</f>
-        <v> englandmod.5.d:0 "A British delegate arrived in Dublin this morning. The effects of the ultra-nationalist movement in Britain has finally come to our doorstep, as London demands our immediate annexation. We don't know if the French or Americans will come to our defense, and have a tough decision to make."</v>
+        <v> englandmod.5.d:0 "Ein britischer Delegierter ist heute Morgen in Dublin eingetroffen. Die Auswirkungen der ultranationalistischen Bewegung in Großbritannien sind nun endlich auch bei uns angekommen, denn London fordert unsere sofortige Annexion. Wir wissen nicht, ob die Franzosen oder die Amerikaner sich für uns einsetzen werden, und müssen eine schwere Entscheidung treffen."</v>
       </c>
       <c r="D17" s="1" t="str">
         <f aca="false">IF(ISBLANK(A17),"",C17)</f>
-        <v> englandmod.5.d:0 "A British delegate arrived in Dublin this morning. The effects of the ultra-nationalist movement in Britain has finally come to our doorstep, as London demands our immediate annexation. We don't know if the French or Americans will come to our defense, and have a tough decision to make."</v>
+        <v> englandmod.5.d:0 "Ein britischer Delegierter ist heute Morgen in Dublin eingetroffen. Die Auswirkungen der ultranationalistischen Bewegung in Großbritannien sind nun endlich auch bei uns angekommen, denn London fordert unsere sofortige Annexion. Wir wissen nicht, ob die Franzosen oder die Amerikaner sich für uns einsetzen werden, und müssen eine schwere Entscheidung treffen."</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -954,11 +954,11 @@
       </c>
       <c r="C18" s="1" t="str">
         <f aca="false">A18 &amp;" " &amp;"""" &amp;B18 &amp;""""</f>
-        <v> englandmod.5.a:0 "Give in to their demands."</v>
+        <v> englandmod.5.a:0 "Ihren Forderungen nachgeben."</v>
       </c>
       <c r="D18" s="1" t="str">
         <f aca="false">IF(ISBLANK(A18),"",C18)</f>
-        <v> englandmod.5.a:0 "Give in to their demands."</v>
+        <v> englandmod.5.a:0 "Ihren Forderungen nachgeben."</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -966,495 +966,495 @@
         <v>35</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C19" s="1" t="str">
         <f aca="false">A19 &amp;" " &amp;"""" &amp;B19 &amp;""""</f>
-        <v> englandmod.5.b:0 "Fat chance."</v>
+        <v> englandmod.5.b:0 "Keine Chance."</v>
       </c>
       <c r="D19" s="1" t="str">
         <f aca="false">IF(ISBLANK(A19),"",C19)</f>
-        <v> englandmod.5.b:0 "Fat chance."</v>
+        <v> englandmod.5.b:0 "Keine Chance."</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="C20" s="1" t="str">
         <f aca="false">A20 &amp;" " &amp;"""" &amp;B20 &amp;""""</f>
-        <v> englandmod.6.t:0 "Ireland Gives In!"</v>
+        <v> englandmod.6.t:0 "Irland lenkt ein!"</v>
       </c>
       <c r="D20" s="1" t="str">
         <f aca="false">IF(ISBLANK(A20),"",C20)</f>
-        <v> englandmod.6.t:0 "Ireland Gives In!"</v>
+        <v> englandmod.6.t:0 "Irland lenkt ein!"</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="C21" s="1" t="str">
         <f aca="false">A21 &amp;" " &amp;"""" &amp;B21 &amp;""""</f>
-        <v> englandmod.6.d:0 "Our delegate from Dublin has arrived with fantastic news! The weak Irish have decided to accept our demand for their immediate Annexation. We can now move on to the next phase of our plan."</v>
+        <v> englandmod.6.d:0 "Unser Delegierter aus Dublin ist mit fantastischen Neuigkeiten eingetroffen! Die schwachen Iren haben beschlossen, unsere Forderung nach einer sofortigen Annexion zu akzeptieren. Wir können nun zur nächsten Phase unseres Plans übergehen."</v>
       </c>
       <c r="D21" s="1" t="str">
         <f aca="false">IF(ISBLANK(A21),"",C21)</f>
-        <v> englandmod.6.d:0 "Our delegate from Dublin has arrived with fantastic news! The weak Irish have decided to accept our demand for their immediate Annexation. We can now move on to the next phase of our plan."</v>
+        <v> englandmod.6.d:0 "Unser Delegierter aus Dublin ist mit fantastischen Neuigkeiten eingetroffen! Die schwachen Iren haben beschlossen, unsere Forderung nach einer sofortigen Annexion zu akzeptieren. Wir können nun zur nächsten Phase unseres Plans übergehen."</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="C22" s="1" t="str">
         <f aca="false">A22 &amp;" " &amp;"""" &amp;B22 &amp;""""</f>
-        <v> englandmod.6.a:0 "They made a smart choice."</v>
+        <v> englandmod.6.a:0 "Sie haben eine kluge Entscheidung getroffen."</v>
       </c>
       <c r="D22" s="1" t="str">
         <f aca="false">IF(ISBLANK(A22),"",C22)</f>
-        <v> englandmod.6.a:0 "They made a smart choice."</v>
+        <v> englandmod.6.a:0 "Sie haben eine kluge Entscheidung getroffen."</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="C23" s="1" t="str">
         <f aca="false">A23 &amp;" " &amp;"""" &amp;B23 &amp;""""</f>
-        <v> englandmod.7.t:0 "Ireland Refuses Our Demands!"</v>
+        <v> englandmod.7.t:0 "Irland lehnt unsere Forderungen ab!"</v>
       </c>
       <c r="D23" s="1" t="str">
         <f aca="false">IF(ISBLANK(A23),"",C23)</f>
-        <v> englandmod.7.t:0 "Ireland Refuses Our Demands!"</v>
+        <v> englandmod.7.t:0 "Irland lehnt unsere Forderungen ab!"</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="C24" s="1" t="str">
         <f aca="false">A24 &amp;" " &amp;"""" &amp;B24 &amp;""""</f>
-        <v> englandmod.7.d:0 "In a pathetic, final attempt at bravery, the foolish Irish government has refused our demand for annexation. What's more, they have decided to mobilize their armed forces in case of a British attack."</v>
+        <v> englandmod.7.d:0 "In einem erbärmlichen, letzten Versuch der Tapferkeit hat die törichte irische Regierung unsere Forderung nach einer Annexion abgelehnt. Mehr noch, sie hat beschlossen, ihre Streitkräfte für den Fall eines britischen Angriffs zu mobilisieren."</v>
       </c>
       <c r="D24" s="1" t="str">
         <f aca="false">IF(ISBLANK(A24),"",C24)</f>
-        <v> englandmod.7.d:0 "In a pathetic, final attempt at bravery, the foolish Irish government has refused our demand for annexation. What's more, they have decided to mobilize their armed forces in case of a British attack."</v>
+        <v> englandmod.7.d:0 "In einem erbärmlichen, letzten Versuch der Tapferkeit hat die törichte irische Regierung unsere Forderung nach einer Annexion abgelehnt. Mehr noch, sie hat beschlossen, ihre Streitkräfte für den Fall eines britischen Angriffs zu mobilisieren."</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="C25" s="1" t="str">
         <f aca="false">A25 &amp;" " &amp;"""" &amp;B25 &amp;""""</f>
-        <v> englandmod.7.a:0 "Are they suicidal?"</v>
+        <v> englandmod.7.a:0 "Sind sie selbstmörderisch?"</v>
       </c>
       <c r="D25" s="1" t="str">
         <f aca="false">IF(ISBLANK(A25),"",C25)</f>
-        <v> englandmod.7.a:0 "Are they suicidal?"</v>
+        <v> englandmod.7.a:0 "Sind sie selbstmörderisch?"</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="C26" s="1" t="str">
         <f aca="false">A26 &amp;" " &amp;"""" &amp;B26 &amp;""""</f>
-        <v> englandmod.8.t:0 "The British Propose An Alliance"</v>
+        <v> englandmod.8.t:0 "Die Briten schlagen ein Bündnis vor"</v>
       </c>
       <c r="D26" s="1" t="str">
         <f aca="false">IF(ISBLANK(A26),"",C26)</f>
-        <v> englandmod.8.t:0 "The British Propose An Alliance"</v>
+        <v> englandmod.8.t:0 "Die Briten schlagen ein Bündnis vor"</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="C27" s="1" t="str">
         <f aca="false">A27 &amp;" " &amp;"""" &amp;B27 &amp;""""</f>
-        <v> englandmod.8.d:0 "A British delegate arrived in Lisbon this morning. If it wasn't clear enough already with their meddling with Spanish politics, they now seek to influence our own and offer us an alliance."</v>
+        <v> englandmod.8.d:0 "Heute Morgen ist ein britischer Delegierter in Lissabon eingetroffen. Als ob die Einmischung der Briten in die spanische Politik nicht schon deutlich genug wäre, versuchen sie nun auch noch, Einfluss auf unsere Politik zu nehmen und bieten uns ein Bündnis an."</v>
       </c>
       <c r="D27" s="1" t="str">
         <f aca="false">IF(ISBLANK(A27),"",C27)</f>
-        <v> englandmod.8.d:0 "A British delegate arrived in Lisbon this morning. If it wasn't clear enough already with their meddling with Spanish politics, they now seek to influence our own and offer us an alliance."</v>
+        <v> englandmod.8.d:0 "Heute Morgen ist ein britischer Delegierter in Lissabon eingetroffen. Als ob die Einmischung der Briten in die spanische Politik nicht schon deutlich genug wäre, versuchen sie nun auch noch, Einfluss auf unsere Politik zu nehmen und bieten uns ein Bündnis an."</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="C28" s="1" t="str">
         <f aca="false">A28 &amp;" " &amp;"""" &amp;B28 &amp;""""</f>
-        <v> englandmod.8.a:0 "We accept!"</v>
+        <v> englandmod.8.a:0 "Wir nehmen an!"</v>
       </c>
       <c r="D28" s="1" t="str">
         <f aca="false">IF(ISBLANK(A28),"",C28)</f>
-        <v> englandmod.8.a:0 "We accept!"</v>
+        <v> englandmod.8.a:0 "Wir nehmen an!"</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="C29" s="1" t="str">
         <f aca="false">A29 &amp;" " &amp;"""" &amp;B29 &amp;""""</f>
-        <v> englandmod.8.b:0 "We will take no part in this."</v>
+        <v> englandmod.8.b:0 "Wir werden uns nicht daran beteiligen."</v>
       </c>
       <c r="D29" s="1" t="str">
         <f aca="false">IF(ISBLANK(A29),"",C29)</f>
-        <v> englandmod.8.b:0 "We will take no part in this."</v>
+        <v> englandmod.8.b:0 "Wir werden uns nicht daran beteiligen."</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C30" s="1" t="str">
         <f aca="false">A30 &amp;" " &amp;"""" &amp;B30 &amp;""""</f>
-        <v> englandmod.9.t:0 "Portugal Accepts!"</v>
+        <v> englandmod.9.t:0 "Portugal nimmt an!"</v>
       </c>
       <c r="D30" s="1" t="str">
         <f aca="false">IF(ISBLANK(A30),"",C30)</f>
-        <v> englandmod.9.t:0 "Portugal Accepts!"</v>
+        <v> englandmod.9.t:0 "Portugal nimmt an!"</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="C31" s="1" t="str">
         <f aca="false">A31 &amp;" " &amp;"""" &amp;B31 &amp;""""</f>
-        <v> englandmod.9.d:0 "Portugal has accepted our alliance offer! Once again the Portuguese and British stand side by side against their adversaries!"</v>
+        <v> englandmod.9.d:0 "Portugal hat unser Bündnisangebot angenommen! Wieder einmal stehen die Portugiesen und die Briten Seite an Seite gegen ihre Widersacher!"</v>
       </c>
       <c r="D31" s="1" t="str">
         <f aca="false">IF(ISBLANK(A31),"",C31)</f>
-        <v> englandmod.9.d:0 "Portugal has accepted our alliance offer! Once again the Portuguese and British stand side by side against their adversaries!"</v>
+        <v> englandmod.9.d:0 "Portugal hat unser Bündnisangebot angenommen! Wieder einmal stehen die Portugiesen und die Briten Seite an Seite gegen ihre Widersacher!"</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="C32" s="1" t="str">
         <f aca="false">A32 &amp;" " &amp;"""" &amp;B32 &amp;""""</f>
-        <v> englandmod.9.a:0 "Huzzah!"</v>
+        <v> englandmod.9.a:0 "Hurra!"</v>
       </c>
       <c r="D32" s="1" t="str">
         <f aca="false">IF(ISBLANK(A32),"",C32)</f>
-        <v> englandmod.9.a:0 "Huzzah!"</v>
+        <v> englandmod.9.a:0 "Hurra!"</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C33" s="1" t="str">
         <f aca="false">A33 &amp;" " &amp;"""" &amp;B33 &amp;""""</f>
-        <v> englandmod.10.t:0 "Portugal Refuses!"</v>
+        <v> englandmod.10.t:0 "Portugal lehnt ab!"</v>
       </c>
       <c r="D33" s="1" t="str">
         <f aca="false">IF(ISBLANK(A33),"",C33)</f>
-        <v> englandmod.10.t:0 "Portugal Refuses!"</v>
+        <v> englandmod.10.t:0 "Portugal lehnt ab!"</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="C34" s="1" t="str">
         <f aca="false">A34 &amp;" " &amp;"""" &amp;B34 &amp;""""</f>
-        <v> englandmod.10.d:0 "Portugal has refused our alliance offer! They have proven to be useless to us!"</v>
+        <v> englandmod.10.d:0 "Portugal hat unser Bündnisangebot abgelehnt! Sie haben bewiesen, dass sie für uns nutzlos sind!"</v>
       </c>
       <c r="D34" s="1" t="str">
         <f aca="false">IF(ISBLANK(A34),"",C34)</f>
-        <v> englandmod.10.d:0 "Portugal has refused our alliance offer! They have proven to be useless to us!"</v>
+        <v> englandmod.10.d:0 "Portugal hat unser Bündnisangebot abgelehnt! Sie haben bewiesen, dass sie für uns nutzlos sind!"</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="C35" s="1" t="str">
         <f aca="false">A35 &amp;" " &amp;"""" &amp;B35 &amp;""""</f>
-        <v> englandmod.10.a:0 "If you're not with us you're against us."</v>
+        <v> englandmod.10.a:0 "Wenn ihr nicht für uns seid, seid ihr gegen uns."</v>
       </c>
       <c r="D35" s="1" t="str">
         <f aca="false">IF(ISBLANK(A35),"",C35)</f>
-        <v> englandmod.10.a:0 "If you're not with us you're against us."</v>
+        <v> englandmod.10.a:0 "Wenn ihr nicht für uns seid, seid ihr gegen uns."</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C36" s="1" t="str">
         <f aca="false">A36 &amp;" " &amp;"""" &amp;B36 &amp;""""</f>
-        <v> englandmod.11.t:0 "The British Propose An Alliance"</v>
+        <v> englandmod.11.t:0 "Die Briten schlagen ein Bündnis vor"</v>
       </c>
       <c r="D36" s="1" t="str">
         <f aca="false">IF(ISBLANK(A36),"",C36)</f>
-        <v> englandmod.11.t:0 "The British Propose An Alliance"</v>
+        <v> englandmod.11.t:0 "Die Briten schlagen ein Bündnis vor"</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="C37" s="1" t="str">
         <f aca="false">A37 &amp;" " &amp;"""" &amp;B37 &amp;""""</f>
-        <v> englandmod.11.d:0 "A British delegate arrived in Rome this morning. The British are starting to focus their efforts in the Mediterranean and would like to propose an alliance. While we don't want to antagonize them, if we agree to an alliance it could undermine some of our claims..."</v>
+        <v> englandmod.11.d:0 "Ein britischer Delegierter ist heute Morgen in Rom eingetroffen. Die Briten beginnen, ihre Bemühungen im Mittelmeerraum zu konzentrieren und möchten ein Bündnis vorschlagen. Wir wollen sie zwar nicht verärgern, aber wenn wir einem Bündnis zustimmen, könnte es einige unserer Ansprüche untergraben..."</v>
       </c>
       <c r="D37" s="1" t="str">
         <f aca="false">IF(ISBLANK(A37),"",C37)</f>
-        <v> englandmod.11.d:0 "A British delegate arrived in Rome this morning. The British are starting to focus their efforts in the Mediterranean and would like to propose an alliance. While we don't want to antagonize them, if we agree to an alliance it could undermine some of our claims..."</v>
+        <v> englandmod.11.d:0 "Ein britischer Delegierter ist heute Morgen in Rom eingetroffen. Die Briten beginnen, ihre Bemühungen im Mittelmeerraum zu konzentrieren und möchten ein Bündnis vorschlagen. Wir wollen sie zwar nicht verärgern, aber wenn wir einem Bündnis zustimmen, könnte es einige unserer Ansprüche untergraben..."</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C38" s="1" t="str">
         <f aca="false">A38 &amp;" " &amp;"""" &amp;B38 &amp;""""</f>
-        <v> englandmod.11.a:0 "We accept!"</v>
+        <v> englandmod.11.a:0 "Wir nehmen an!"</v>
       </c>
       <c r="D38" s="1" t="str">
         <f aca="false">IF(ISBLANK(A38),"",C38)</f>
-        <v> englandmod.11.a:0 "We accept!"</v>
+        <v> englandmod.11.a:0 "Wir nehmen an!"</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="C39" s="1" t="str">
         <f aca="false">A39 &amp;" " &amp;"""" &amp;B39 &amp;""""</f>
-        <v> englandmod.11.b:0 "No way."</v>
+        <v> englandmod.11.b:0 "Auf keinen Fall."</v>
       </c>
       <c r="D39" s="1" t="str">
         <f aca="false">IF(ISBLANK(A39),"",C39)</f>
-        <v> englandmod.11.b:0 "No way."</v>
+        <v> englandmod.11.b:0 "Auf keinen Fall."</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="C40" s="1" t="str">
         <f aca="false">A40 &amp;" " &amp;"""" &amp;B40 &amp;""""</f>
-        <v> englandmod.12.t:0 "Italy Accepts!"</v>
+        <v> englandmod.12.t:0 "Italien nimmt an!"</v>
       </c>
       <c r="D40" s="1" t="str">
         <f aca="false">IF(ISBLANK(A40),"",C40)</f>
-        <v> englandmod.12.t:0 "Italy Accepts!"</v>
+        <v> englandmod.12.t:0 "Italien nimmt an!"</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="C41" s="1" t="str">
         <f aca="false">A41 &amp;" " &amp;"""" &amp;B41 &amp;""""</f>
-        <v> englandmod.12.d:0 "Italy has accepted our alliance offer! Together we will share hegemony!"</v>
+        <v> englandmod.12.d:0 "Italien hat unser Bündnisangebot angenommen! Gemeinsam werden wir uns die Hegemonie teilen!"</v>
       </c>
       <c r="D41" s="1" t="str">
         <f aca="false">IF(ISBLANK(A41),"",C41)</f>
-        <v> englandmod.12.d:0 "Italy has accepted our alliance offer! Together we will share hegemony!"</v>
+        <v> englandmod.12.d:0 "Italien hat unser Bündnisangebot angenommen! Gemeinsam werden wir uns die Hegemonie teilen!"</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C42" s="1" t="str">
         <f aca="false">A42 &amp;" " &amp;"""" &amp;B42 &amp;""""</f>
-        <v> englandmod.12.a:0 "Huzzah!"</v>
+        <v> englandmod.12.a:0 "Hurra!"</v>
       </c>
       <c r="D42" s="1" t="str">
         <f aca="false">IF(ISBLANK(A42),"",C42)</f>
-        <v> englandmod.12.a:0 "Huzzah!"</v>
+        <v> englandmod.12.a:0 "Hurra!"</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="C43" s="1" t="str">
         <f aca="false">A43 &amp;" " &amp;"""" &amp;B43 &amp;""""</f>
-        <v> englandmod.13.t:0 "Italy Refuses!"</v>
+        <v> englandmod.13.t:0 "Italien lehnt ab!"</v>
       </c>
       <c r="D43" s="1" t="str">
         <f aca="false">IF(ISBLANK(A43),"",C43)</f>
-        <v> englandmod.13.t:0 "Italy Refuses!"</v>
+        <v> englandmod.13.t:0 "Italien lehnt ab!"</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="C44" s="1" t="str">
         <f aca="false">A44 &amp;" " &amp;"""" &amp;B44 &amp;""""</f>
-        <v> englandmod.13.d:0 "Italy has refused our alliance offer! They have proven to be useless to us!"</v>
+        <v> englandmod.13.d:0 "Italien hat unser Bündnisangebot abgelehnt! Sie haben bewiesen, dass sie für uns nutzlos sind!"</v>
       </c>
       <c r="D44" s="1" t="str">
         <f aca="false">IF(ISBLANK(A44),"",C44)</f>
-        <v> englandmod.13.d:0 "Italy has refused our alliance offer! They have proven to be useless to us!"</v>
+        <v> englandmod.13.d:0 "Italien hat unser Bündnisangebot abgelehnt! Sie haben bewiesen, dass sie für uns nutzlos sind!"</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C45" s="1" t="str">
         <f aca="false">A45 &amp;" " &amp;"""" &amp;B45 &amp;""""</f>
-        <v> englandmod.13.a:0 "If you're not with us you're against us."</v>
+        <v> englandmod.13.a:0 "Wenn ihr nicht für uns seid, seid ihr gegen uns."</v>
       </c>
       <c r="D45" s="1" t="str">
         <f aca="false">IF(ISBLANK(A45),"",C45)</f>
-        <v> englandmod.13.a:0 "If you're not with us you're against us."</v>
+        <v> englandmod.13.a:0 "Wenn ihr nicht für uns seid, seid ihr gegen uns."</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C46" s="1" t="str">
         <f aca="false">A46 &amp;" " &amp;"""" &amp;B46 &amp;""""</f>
-        <v> englandmod.14.t:0 "The British Propose An Alliance"</v>
+        <v> englandmod.14.t:0 "Die Briten schlagen ein Bündnis vor"</v>
       </c>
       <c r="D46" s="1" t="str">
         <f aca="false">IF(ISBLANK(A46),"",C46)</f>
-        <v> englandmod.14.t:0 "The British Propose An Alliance"</v>
+        <v> englandmod.14.t:0 "Die Briten schlagen ein Bündnis vor"</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="C47" s="1" t="str">
         <f aca="false">A47 &amp;" " &amp;"""" &amp;B47 &amp;""""</f>
-        <v> englandmod.14.d:0 "A British delegate arrived in Warsaw this morning. The British expect that eventually the Germans will declare war on one of its neighbors, and they assume that will be us. They propose an alliance to deter the Germans from attacking, but we also feel like they will lead us down a dark path eventually...."</v>
+        <v> englandmod.14.d:0 "Ein britischer Delegierter ist heute Morgen in Warschau eingetroffen. Die Briten erwarten, dass die Deutschen irgendwann einem ihrer Nachbarn den Krieg erklären werden, und sie gehen davon aus, dass das wir sein werden. Sie schlagen ein Bündnis vor, um die Deutschen von einem Angriff abzuhalten, aber wir haben auch das Gefühl, dass sie uns auf einen dunklen Pfad führen werden. ...."</v>
       </c>
       <c r="D47" s="1" t="str">
         <f aca="false">IF(ISBLANK(A47),"",C47)</f>
-        <v> englandmod.14.d:0 "A British delegate arrived in Warsaw this morning. The British expect that eventually the Germans will declare war on one of its neighbors, and they assume that will be us. They propose an alliance to deter the Germans from attacking, but we also feel like they will lead us down a dark path eventually...."</v>
+        <v> englandmod.14.d:0 "Ein britischer Delegierter ist heute Morgen in Warschau eingetroffen. Die Briten erwarten, dass die Deutschen irgendwann einem ihrer Nachbarn den Krieg erklären werden, und sie gehen davon aus, dass das wir sein werden. Sie schlagen ein Bündnis vor, um die Deutschen von einem Angriff abzuhalten, aber wir haben auch das Gefühl, dass sie uns auf einen dunklen Pfad führen werden. ...."</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C48" s="1" t="str">
         <f aca="false">A48 &amp;" " &amp;"""" &amp;B48 &amp;""""</f>
-        <v> englandmod.14.a:0 "We accept!"</v>
+        <v> englandmod.14.a:0 "Wir nehmen an!"</v>
       </c>
       <c r="D48" s="1" t="str">
         <f aca="false">IF(ISBLANK(A48),"",C48)</f>
-        <v> englandmod.14.a:0 "We accept!"</v>
+        <v> englandmod.14.a:0 "Wir nehmen an!"</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="C49" s="1" t="str">
         <f aca="false">A49 &amp;" " &amp;"""" &amp;B49 &amp;""""</f>
-        <v> englandmod.14.b:0 "No way."</v>
+        <v> englandmod.14.b:0 "Das geht nicht."</v>
       </c>
       <c r="D49" s="1" t="str">
         <f aca="false">IF(ISBLANK(A49),"",C49)</f>
-        <v> englandmod.14.b:0 "No way."</v>
+        <v> englandmod.14.b:0 "Das geht nicht."</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1466,11 +1466,11 @@
       </c>
       <c r="C50" s="1" t="str">
         <f aca="false">A50 &amp;" " &amp;"""" &amp;B50 &amp;""""</f>
-        <v> englandmod.15.t:0 "Poland Accepts!"</v>
+        <v> englandmod.15.t:0 "Polen nimmt an!"</v>
       </c>
       <c r="D50" s="1" t="str">
         <f aca="false">IF(ISBLANK(A50),"",C50)</f>
-        <v> englandmod.15.t:0 "Poland Accepts!"</v>
+        <v> englandmod.15.t:0 "Polen nimmt an!"</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1482,11 +1482,11 @@
       </c>
       <c r="C51" s="1" t="str">
         <f aca="false">A51 &amp;" " &amp;"""" &amp;B51 &amp;""""</f>
-        <v> englandmod.15.d:0 "Poland has accepted our alliance offer! Together we will defeat the Germans!"</v>
+        <v> englandmod.15.d:0 "Polen hat unser Bündnisangebot angenommen! Gemeinsam werden wir die Deutschen besiegen!"</v>
       </c>
       <c r="D51" s="1" t="str">
         <f aca="false">IF(ISBLANK(A51),"",C51)</f>
-        <v> englandmod.15.d:0 "Poland has accepted our alliance offer! Together we will defeat the Germans!"</v>
+        <v> englandmod.15.d:0 "Polen hat unser Bündnisangebot angenommen! Gemeinsam werden wir die Deutschen besiegen!"</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1494,15 +1494,15 @@
         <v>92</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C52" s="1" t="str">
         <f aca="false">A52 &amp;" " &amp;"""" &amp;B52 &amp;""""</f>
-        <v> englandmod.15.a:0 "Huzzah!"</v>
+        <v> englandmod.15.a:0 "Hurra!"</v>
       </c>
       <c r="D52" s="1" t="str">
         <f aca="false">IF(ISBLANK(A52),"",C52)</f>
-        <v> englandmod.15.a:0 "Huzzah!"</v>
+        <v> englandmod.15.a:0 "Hurra!"</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1514,11 +1514,11 @@
       </c>
       <c r="C53" s="1" t="str">
         <f aca="false">A53 &amp;" " &amp;"""" &amp;B53 &amp;""""</f>
-        <v> englandmod.16.t:0 "Poland Refuses!"</v>
+        <v> englandmod.16.t:0 "Polen lehnt ab!"</v>
       </c>
       <c r="D53" s="1" t="str">
         <f aca="false">IF(ISBLANK(A53),"",C53)</f>
-        <v> englandmod.16.t:0 "Poland Refuses!"</v>
+        <v> englandmod.16.t:0 "Polen lehnt ab!"</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1530,11 +1530,11 @@
       </c>
       <c r="C54" s="1" t="str">
         <f aca="false">A54 &amp;" " &amp;"""" &amp;B54 &amp;""""</f>
-        <v> englandmod.16.d:0 "Poland has refused our alliance offer! They have proven to be useless to us!"</v>
+        <v> englandmod.16.d:0 "Polen hat unser Bündnisangebot abgelehnt! Sie haben bewiesen, dass sie für uns nutzlos sind!"</v>
       </c>
       <c r="D54" s="1" t="str">
         <f aca="false">IF(ISBLANK(A54),"",C54)</f>
-        <v> englandmod.16.d:0 "Poland has refused our alliance offer! They have proven to be useless to us!"</v>
+        <v> englandmod.16.d:0 "Polen hat unser Bündnisangebot abgelehnt! Sie haben bewiesen, dass sie für uns nutzlos sind!"</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1542,15 +1542,15 @@
         <v>97</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C55" s="1" t="str">
         <f aca="false">A55 &amp;" " &amp;"""" &amp;B55 &amp;""""</f>
-        <v> englandmod.16.a:0 "If you're not with us you're against us."</v>
+        <v> englandmod.16.a:0 "Wenn ihr nicht für uns seid, seid ihr gegen uns."</v>
       </c>
       <c r="D55" s="1" t="str">
         <f aca="false">IF(ISBLANK(A55),"",C55)</f>
-        <v> englandmod.16.a:0 "If you're not with us you're against us."</v>
+        <v> englandmod.16.a:0 "Wenn ihr nicht für uns seid, seid ihr gegen uns."</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1562,11 +1562,11 @@
       </c>
       <c r="C56" s="1" t="str">
         <f aca="false">A56 &amp;" " &amp;"""" &amp;B56 &amp;""""</f>
-        <v> englandmod.17.t:0 "British Alliance Offer"</v>
+        <v> englandmod.17.t:0 "Britisches Bündnisangebot"</v>
       </c>
       <c r="D56" s="1" t="str">
         <f aca="false">IF(ISBLANK(A56),"",C56)</f>
-        <v> englandmod.17.t:0 "British Alliance Offer"</v>
+        <v> englandmod.17.t:0 "Britisches Bündnisangebot"</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1578,11 +1578,11 @@
       </c>
       <c r="C57" s="1" t="str">
         <f aca="false">A57 &amp;" " &amp;"""" &amp;B57 &amp;""""</f>
-        <v> englandmod.17.d:0 "A British delegate arrived in Tokyo yesterday. It appears the British feel renewing the Japanese-Anglo alliance would serve both countries well. Could they also be considering a war with the United States?"</v>
+        <v> englandmod.17.d:0 "Ein britischer Delegierter traf gestern in Tokio ein. Anscheinend sind die Briten der Meinung, dass eine Erneuerung des japanisch-angloamerikanischen Bündnisses beiden Ländern gut tun würde. Könnten sie auch einen Krieg mit den Vereinigten Staaten in Betracht ziehen?"</v>
       </c>
       <c r="D57" s="1" t="str">
         <f aca="false">IF(ISBLANK(A57),"",C57)</f>
-        <v> englandmod.17.d:0 "A British delegate arrived in Tokyo yesterday. It appears the British feel renewing the Japanese-Anglo alliance would serve both countries well. Could they also be considering a war with the United States?"</v>
+        <v> englandmod.17.d:0 "Ein britischer Delegierter traf gestern in Tokio ein. Anscheinend sind die Briten der Meinung, dass eine Erneuerung des japanisch-angloamerikanischen Bündnisses beiden Ländern gut tun würde. Könnten sie auch einen Krieg mit den Vereinigten Staaten in Betracht ziehen?"</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1594,11 +1594,11 @@
       </c>
       <c r="C58" s="1" t="str">
         <f aca="false">A58 &amp;" " &amp;"""" &amp;B58 &amp;""""</f>
-        <v> englandmod.17.a:0 "We agree to renewing the alliance."</v>
+        <v> englandmod.17.a:0 "Wir sind mit der Erneuerung des Bündnisses einverstanden."</v>
       </c>
       <c r="D58" s="1" t="str">
         <f aca="false">IF(ISBLANK(A58),"",C58)</f>
-        <v> englandmod.17.a:0 "We agree to renewing the alliance."</v>
+        <v> englandmod.17.a:0 "Wir sind mit der Erneuerung des Bündnisses einverstanden."</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1610,11 +1610,11 @@
       </c>
       <c r="C59" s="1" t="str">
         <f aca="false">A59 &amp;" " &amp;"""" &amp;B59 &amp;""""</f>
-        <v> englandmod.17.b:0 "We don't need them."</v>
+        <v> englandmod.17.b:0 "Wir brauchen sie nicht."</v>
       </c>
       <c r="D59" s="1" t="str">
         <f aca="false">IF(ISBLANK(A59),"",C59)</f>
-        <v> englandmod.17.b:0 "We don't need them."</v>
+        <v> englandmod.17.b:0 "Wir brauchen sie nicht."</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1626,11 +1626,11 @@
       </c>
       <c r="C60" s="1" t="str">
         <f aca="false">A60 &amp;" " &amp;"""" &amp;B60 &amp;""""</f>
-        <v> englandmod.18.t:0 "The Japanese Accept!"</v>
+        <v> englandmod.18.t:0 "Die Japaner sind einverstanden!"</v>
       </c>
       <c r="D60" s="1" t="str">
         <f aca="false">IF(ISBLANK(A60),"",C60)</f>
-        <v> englandmod.18.t:0 "The Japanese Accept!"</v>
+        <v> englandmod.18.t:0 "Die Japaner sind einverstanden!"</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1642,11 +1642,11 @@
       </c>
       <c r="C61" s="1" t="str">
         <f aca="false">A61 &amp;" " &amp;"""" &amp;B61 &amp;""""</f>
-        <v> englandmod.18.d:0 "Good news! Japan has accepted our alliance offer! With our combined might the Americans will surely fall!"</v>
+        <v> englandmod.18.d:0 "Gute Nachrichten! Japan hat unser Bündnisangebot angenommen! Mit unserer vereinten Kraft werden die Amerikaner sicher fallen!"</v>
       </c>
       <c r="D61" s="1" t="str">
         <f aca="false">IF(ISBLANK(A61),"",C61)</f>
-        <v> englandmod.18.d:0 "Good news! Japan has accepted our alliance offer! With our combined might the Americans will surely fall!"</v>
+        <v> englandmod.18.d:0 "Gute Nachrichten! Japan hat unser Bündnisangebot angenommen! Mit unserer vereinten Kraft werden die Amerikaner sicher fallen!"</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1654,15 +1654,15 @@
         <v>110</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C62" s="1" t="str">
         <f aca="false">A62 &amp;" " &amp;"""" &amp;B62 &amp;""""</f>
-        <v> englandmod.18.a:0 "Huzzah!"</v>
+        <v> englandmod.18.a:0 "Hurra!"</v>
       </c>
       <c r="D62" s="1" t="str">
         <f aca="false">IF(ISBLANK(A62),"",C62)</f>
-        <v> englandmod.18.a:0 "Huzzah!"</v>
+        <v> englandmod.18.a:0 "Hurra!"</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1674,11 +1674,11 @@
       </c>
       <c r="C63" s="1" t="str">
         <f aca="false">A63 &amp;" " &amp;"""" &amp;B63 &amp;""""</f>
-        <v> englandmod.19.t:0 "The Japanese Refuse!"</v>
+        <v> englandmod.19.t:0 "Die Japaner lehnen ab!"</v>
       </c>
       <c r="D63" s="1" t="str">
         <f aca="false">IF(ISBLANK(A63),"",C63)</f>
-        <v> englandmod.19.t:0 "The Japanese Refuse!"</v>
+        <v> englandmod.19.t:0 "Die Japaner lehnen ab!"</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1690,11 +1690,11 @@
       </c>
       <c r="C64" s="1" t="str">
         <f aca="false">A64 &amp;" " &amp;"""" &amp;B64 &amp;""""</f>
-        <v> englandmod.19.d:0 "Bad news! Japan has refused our alliance offer. Do they not realize the sleeping giant will soon wake?"</v>
+        <v> englandmod.19.d:0 "Schlechte Nachrichten! Japan hat unser Bündnisangebot abgelehnt. Ist ihnen nicht klar, dass der schlafende Riese bald erwachen wird?"</v>
       </c>
       <c r="D64" s="1" t="str">
         <f aca="false">IF(ISBLANK(A64),"",C64)</f>
-        <v> englandmod.19.d:0 "Bad news! Japan has refused our alliance offer. Do they not realize the sleeping giant will soon wake?"</v>
+        <v> englandmod.19.d:0 "Schlechte Nachrichten! Japan hat unser Bündnisangebot abgelehnt. Ist ihnen nicht klar, dass der schlafende Riese bald erwachen wird?"</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1706,11 +1706,11 @@
       </c>
       <c r="C65" s="1" t="str">
         <f aca="false">A65 &amp;" " &amp;"""" &amp;B65 &amp;""""</f>
-        <v> englandmod.19.a:0 "It's their funeral."</v>
+        <v> englandmod.19.a:0 "Es ist ihre Beerdigung."</v>
       </c>
       <c r="D65" s="1" t="str">
         <f aca="false">IF(ISBLANK(A65),"",C65)</f>
-        <v> englandmod.19.a:0 "It's their funeral."</v>
+        <v> englandmod.19.a:0 "Es ist ihre Beerdigung."</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1722,11 +1722,11 @@
       </c>
       <c r="C66" s="1" t="str">
         <f aca="false">A66 &amp;" " &amp;"""" &amp;B66 &amp;""""</f>
-        <v> englandmod.20.t:0 "British Alliance Offer"</v>
+        <v> englandmod.20.t:0 "Britisches Bündnisangebot"</v>
       </c>
       <c r="D66" s="1" t="str">
         <f aca="false">IF(ISBLANK(A66),"",C66)</f>
-        <v> englandmod.20.t:0 "British Alliance Offer"</v>
+        <v> englandmod.20.t:0 "Britisches Bündnisangebot"</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1738,11 +1738,11 @@
       </c>
       <c r="C67" s="1" t="str">
         <f aca="false">A67 &amp;" " &amp;"""" &amp;B67 &amp;""""</f>
-        <v> englandmod.20.d:0 "A British delegate arrived in Caracas yesterday. It appears the British feel a military alliance between our two nations would be mutually beneficial. Could they also be considering a war with the United States?"</v>
+        <v> englandmod.20.d:0 "Ein britischer Delegierter traf gestern in Caracas ein. Anscheinend sind die Briten der Meinung, dass ein Militärbündnis zwischen unseren beiden Nationen für beide Seiten von Vorteil wäre. Könnte es sein, dass sie auch einen Krieg mit den Vereinigten Staaten in Betracht ziehen?"</v>
       </c>
       <c r="D67" s="1" t="str">
         <f aca="false">IF(ISBLANK(A67),"",C67)</f>
-        <v> englandmod.20.d:0 "A British delegate arrived in Caracas yesterday. It appears the British feel a military alliance between our two nations would be mutually beneficial. Could they also be considering a war with the United States?"</v>
+        <v> englandmod.20.d:0 "Ein britischer Delegierter traf gestern in Caracas ein. Anscheinend sind die Briten der Meinung, dass ein Militärbündnis zwischen unseren beiden Nationen für beide Seiten von Vorteil wäre. Könnte es sein, dass sie auch einen Krieg mit den Vereinigten Staaten in Betracht ziehen?"</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1754,11 +1754,11 @@
       </c>
       <c r="C68" s="1" t="str">
         <f aca="false">A68 &amp;" " &amp;"""" &amp;B68 &amp;""""</f>
-        <v> englandmod.20.a:0 "We agree to join!"</v>
+        <v> englandmod.20.a:0 "Wir sind bereit, uns anzuschließen!"</v>
       </c>
       <c r="D68" s="1" t="str">
         <f aca="false">IF(ISBLANK(A68),"",C68)</f>
-        <v> englandmod.20.a:0 "We agree to join!"</v>
+        <v> englandmod.20.a:0 "Wir sind bereit, uns anzuschließen!"</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1770,11 +1770,11 @@
       </c>
       <c r="C69" s="1" t="str">
         <f aca="false">A69 &amp;" " &amp;"""" &amp;B69 &amp;""""</f>
-        <v> englandmod.20.b:0 "No thanks"</v>
+        <v> englandmod.20.b:0 "Nein danke!"</v>
       </c>
       <c r="D69" s="1" t="str">
         <f aca="false">IF(ISBLANK(A69),"",C69)</f>
-        <v> englandmod.20.b:0 "No thanks"</v>
+        <v> englandmod.20.b:0 "Nein danke!"</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1786,11 +1786,11 @@
       </c>
       <c r="C70" s="1" t="str">
         <f aca="false">A70 &amp;" " &amp;"""" &amp;B70 &amp;""""</f>
-        <v> englandmod.21.t:0 "Venezuela Accepts!"</v>
+        <v> englandmod.21.t:0 "Venezuela nimmt an!"</v>
       </c>
       <c r="D70" s="1" t="str">
         <f aca="false">IF(ISBLANK(A70),"",C70)</f>
-        <v> englandmod.21.t:0 "Venezuela Accepts!"</v>
+        <v> englandmod.21.t:0 "Venezuela nimmt an!"</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1802,11 +1802,11 @@
       </c>
       <c r="C71" s="1" t="str">
         <f aca="false">A71 &amp;" " &amp;"""" &amp;B71 &amp;""""</f>
-        <v> englandmod.21.d:0 "Good news! Venezuela has accepted our alliance offer! They will prove useful as a base from which to strike the western hemipshere."</v>
+        <v> englandmod.21.d:0 "Gute Nachrichten! Venezuela hat unser Bündnisangebot angenommen! Es wird sich als nützliche Basis erweisen, von der aus wir die westliche Hemisphäre angreifen können."</v>
       </c>
       <c r="D71" s="1" t="str">
         <f aca="false">IF(ISBLANK(A71),"",C71)</f>
-        <v> englandmod.21.d:0 "Good news! Venezuela has accepted our alliance offer! They will prove useful as a base from which to strike the western hemipshere."</v>
+        <v> englandmod.21.d:0 "Gute Nachrichten! Venezuela hat unser Bündnisangebot angenommen! Es wird sich als nützliche Basis erweisen, von der aus wir die westliche Hemisphäre angreifen können."</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1814,15 +1814,15 @@
         <v>128</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C72" s="1" t="str">
         <f aca="false">A72 &amp;" " &amp;"""" &amp;B72 &amp;""""</f>
-        <v> englandmod.21.a:0 "Huzzah!"</v>
+        <v> englandmod.21.a:0 "Hurra!"</v>
       </c>
       <c r="D72" s="1" t="str">
         <f aca="false">IF(ISBLANK(A72),"",C72)</f>
-        <v> englandmod.21.a:0 "Huzzah!"</v>
+        <v> englandmod.21.a:0 "Hurra!"</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1834,11 +1834,11 @@
       </c>
       <c r="C73" s="1" t="str">
         <f aca="false">A73 &amp;" " &amp;"""" &amp;B73 &amp;""""</f>
-        <v> englandmod.22.t:0 "Venezuela Refuses!"</v>
+        <v> englandmod.22.t:0 "Venezuela lehnt ab!"</v>
       </c>
       <c r="D73" s="1" t="str">
         <f aca="false">IF(ISBLANK(A73),"",C73)</f>
-        <v> englandmod.22.t:0 "Venezuela Refuses!"</v>
+        <v> englandmod.22.t:0 "Venezuela lehnt ab!"</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1850,11 +1850,11 @@
       </c>
       <c r="C74" s="1" t="str">
         <f aca="false">A74 &amp;" " &amp;"""" &amp;B74 &amp;""""</f>
-        <v> englandmod.22.d:0 "Bad news! Venezuela has refused our alliance offer. Do they not realize the sleeping giant will soon wake?"</v>
+        <v> englandmod.22.d:0 "Schlechte Nachrichten! Venezuela hat unser Bündnisangebot abgelehnt. Ist ihnen nicht klar, dass der schlafende Riese bald erwachen wird?"</v>
       </c>
       <c r="D74" s="1" t="str">
         <f aca="false">IF(ISBLANK(A74),"",C74)</f>
-        <v> englandmod.22.d:0 "Bad news! Venezuela has refused our alliance offer. Do they not realize the sleeping giant will soon wake?"</v>
+        <v> englandmod.22.d:0 "Schlechte Nachrichten! Venezuela hat unser Bündnisangebot abgelehnt. Ist ihnen nicht klar, dass der schlafende Riese bald erwachen wird?"</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1866,11 +1866,11 @@
       </c>
       <c r="C75" s="1" t="str">
         <f aca="false">A75 &amp;" " &amp;"""" &amp;B75 &amp;""""</f>
-        <v> englandmod.22.a:0 "Whatever"</v>
+        <v> englandmod.22.a:0 "Was auch immer"</v>
       </c>
       <c r="D75" s="1" t="str">
         <f aca="false">IF(ISBLANK(A75),"",C75)</f>
-        <v> englandmod.22.a:0 "Whatever"</v>
+        <v> englandmod.22.a:0 "Was auch immer"</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1882,11 +1882,11 @@
       </c>
       <c r="C76" s="1" t="str">
         <f aca="false">A76 &amp;" " &amp;"""" &amp;B76 &amp;""""</f>
-        <v> englandmod.23.t:0 "Strenghtening our Military Presence"</v>
+        <v> englandmod.23.t:0 "Verstärkung unserer Militärpräsenz"</v>
       </c>
       <c r="D76" s="1" t="str">
         <f aca="false">IF(ISBLANK(A76),"",C76)</f>
-        <v> englandmod.23.t:0 "Strenghtening our Military Presence"</v>
+        <v> englandmod.23.t:0 "Verstärkung unserer Militärpräsenz"</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1898,11 +1898,11 @@
       </c>
       <c r="C77" s="1" t="str">
         <f aca="false">A77 &amp;" " &amp;"""" &amp;B77 &amp;""""</f>
-        <v> englandmod.23.d:0 "Several officers have already made their way to these remote islands to help organize the garrisons and local militias. These brave men are now under your command and awaiting orders."</v>
+        <v> englandmod.23.d:0 "Mehrere Offiziere haben sich bereits auf den Weg zu diesen abgelegenen Inseln gemacht, um bei der Organisation der Garnisonen und lokalen Milizen zu helfen. Diese tapferen Männer stehen nun unter Eurem Kommando und warten auf Befehle."</v>
       </c>
       <c r="D77" s="1" t="str">
         <f aca="false">IF(ISBLANK(A77),"",C77)</f>
-        <v> englandmod.23.d:0 "Several officers have already made their way to these remote islands to help organize the garrisons and local militias. These brave men are now under your command and awaiting orders."</v>
+        <v> englandmod.23.d:0 "Mehrere Offiziere haben sich bereits auf den Weg zu diesen abgelegenen Inseln gemacht, um bei der Organisation der Garnisonen und lokalen Milizen zu helfen. Diese tapferen Männer stehen nun unter Eurem Kommando und warten auf Befehle."</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1914,2031 +1914,1220 @@
       </c>
       <c r="C78" s="1" t="str">
         <f aca="false">A78 &amp;" " &amp;"""" &amp;B78 &amp;""""</f>
-        <v> englandmod.23.a:0 "The Empire shall never be defeated!"</v>
+        <v> englandmod.23.a:0 "Das Imperium wird niemals besiegt werden!"</v>
       </c>
       <c r="D78" s="1" t="str">
         <f aca="false">IF(ISBLANK(A78),"",C78)</f>
-        <v> englandmod.23.a:0 "The Empire shall never be defeated!"</v>
+        <v> englandmod.23.a:0 "Das Imperium wird niemals besiegt werden!"</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C79" s="1" t="str">
-        <f aca="false">A79 &amp;" " &amp;"""" &amp;B79 &amp;""""</f>
-        <v>  ""</v>
-      </c>
-      <c r="D79" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A79),"",C79)</f>
-        <v>  ""</v>
-      </c>
+      <c r="D79" s="1"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C80" s="1" t="str">
-        <f aca="false">A80 &amp;" " &amp;"""" &amp;B80 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D80" s="1" t="str">
         <f aca="false">IF(ISBLANK(A80),"",C80)</f>
         <v/>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C81" s="1" t="str">
-        <f aca="false">A81 &amp;" " &amp;"""" &amp;B81 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D81" s="1" t="str">
         <f aca="false">IF(ISBLANK(A81),"",C81)</f>
         <v/>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C82" s="1" t="str">
-        <f aca="false">A82 &amp;" " &amp;"""" &amp;B82 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D82" s="1" t="str">
         <f aca="false">IF(ISBLANK(A82),"",C82)</f>
         <v/>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C83" s="1" t="str">
-        <f aca="false">A83 &amp;" " &amp;"""" &amp;B83 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D83" s="1" t="str">
         <f aca="false">IF(ISBLANK(A83),"",C83)</f>
         <v/>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C84" s="1" t="str">
-        <f aca="false">A84 &amp;" " &amp;"""" &amp;B84 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D84" s="1" t="str">
         <f aca="false">IF(ISBLANK(A84),"",C84)</f>
         <v/>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C85" s="1" t="str">
-        <f aca="false">A85 &amp;" " &amp;"""" &amp;B85 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D85" s="1" t="str">
         <f aca="false">IF(ISBLANK(A85),"",C85)</f>
         <v/>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C86" s="1" t="str">
-        <f aca="false">A86 &amp;" " &amp;"""" &amp;B86 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D86" s="1" t="str">
         <f aca="false">IF(ISBLANK(A86),"",C86)</f>
         <v/>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C87" s="1" t="str">
-        <f aca="false">A87 &amp;" " &amp;"""" &amp;B87 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D87" s="1" t="str">
         <f aca="false">IF(ISBLANK(A87),"",C87)</f>
         <v/>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C88" s="1" t="str">
-        <f aca="false">A88 &amp;" " &amp;"""" &amp;B88 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D88" s="1" t="str">
         <f aca="false">IF(ISBLANK(A88),"",C88)</f>
         <v/>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C89" s="1" t="str">
-        <f aca="false">A89 &amp;" " &amp;"""" &amp;B89 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D89" s="1" t="str">
         <f aca="false">IF(ISBLANK(A89),"",C89)</f>
         <v/>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C90" s="1" t="str">
-        <f aca="false">A90 &amp;" " &amp;"""" &amp;B90 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D90" s="1" t="str">
         <f aca="false">IF(ISBLANK(A90),"",C90)</f>
         <v/>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C91" s="1" t="str">
-        <f aca="false">A91 &amp;" " &amp;"""" &amp;B91 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D91" s="1" t="str">
         <f aca="false">IF(ISBLANK(A91),"",C91)</f>
         <v/>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C92" s="1" t="str">
-        <f aca="false">A92 &amp;" " &amp;"""" &amp;B92 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D92" s="1" t="str">
         <f aca="false">IF(ISBLANK(A92),"",C92)</f>
         <v/>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C93" s="1" t="str">
-        <f aca="false">A93 &amp;" " &amp;"""" &amp;B93 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D93" s="1" t="str">
         <f aca="false">IF(ISBLANK(A93),"",C93)</f>
         <v/>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C94" s="1" t="str">
-        <f aca="false">A94 &amp;" " &amp;"""" &amp;B94 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D94" s="1" t="str">
         <f aca="false">IF(ISBLANK(A94),"",C94)</f>
         <v/>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C95" s="1" t="str">
-        <f aca="false">A95 &amp;" " &amp;"""" &amp;B95 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D95" s="1" t="str">
         <f aca="false">IF(ISBLANK(A95),"",C95)</f>
         <v/>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C96" s="1" t="str">
-        <f aca="false">A96 &amp;" " &amp;"""" &amp;B96 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D96" s="1" t="str">
         <f aca="false">IF(ISBLANK(A96),"",C96)</f>
         <v/>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C97" s="1" t="str">
-        <f aca="false">A97 &amp;" " &amp;"""" &amp;B97 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D97" s="1" t="str">
         <f aca="false">IF(ISBLANK(A97),"",C97)</f>
         <v/>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C98" s="1" t="str">
-        <f aca="false">A98 &amp;" " &amp;"""" &amp;B98 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D98" s="1" t="str">
         <f aca="false">IF(ISBLANK(A98),"",C98)</f>
         <v/>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C99" s="1" t="str">
-        <f aca="false">A99 &amp;" " &amp;"""" &amp;B99 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D99" s="1" t="str">
         <f aca="false">IF(ISBLANK(A99),"",C99)</f>
         <v/>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C100" s="1" t="str">
-        <f aca="false">A100 &amp;" " &amp;"""" &amp;B100 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D100" s="1" t="str">
         <f aca="false">IF(ISBLANK(A100),"",C100)</f>
         <v/>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C101" s="1" t="str">
-        <f aca="false">A101 &amp;" " &amp;"""" &amp;B101 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D101" s="1" t="str">
         <f aca="false">IF(ISBLANK(A101),"",C101)</f>
         <v/>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C102" s="1" t="str">
-        <f aca="false">A102 &amp;" " &amp;"""" &amp;B102 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D102" s="1" t="str">
         <f aca="false">IF(ISBLANK(A102),"",C102)</f>
         <v/>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C103" s="1" t="str">
-        <f aca="false">A103 &amp;" " &amp;"""" &amp;B103 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D103" s="1" t="str">
         <f aca="false">IF(ISBLANK(A103),"",C103)</f>
         <v/>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C104" s="1" t="str">
-        <f aca="false">A104 &amp;" " &amp;"""" &amp;B104 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D104" s="1" t="str">
         <f aca="false">IF(ISBLANK(A104),"",C104)</f>
         <v/>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C105" s="1" t="str">
-        <f aca="false">A105 &amp;" " &amp;"""" &amp;B105 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D105" s="1" t="str">
         <f aca="false">IF(ISBLANK(A105),"",C105)</f>
         <v/>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C106" s="1" t="str">
-        <f aca="false">A106 &amp;" " &amp;"""" &amp;B106 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D106" s="1" t="str">
         <f aca="false">IF(ISBLANK(A106),"",C106)</f>
         <v/>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C107" s="1" t="str">
-        <f aca="false">A107 &amp;" " &amp;"""" &amp;B107 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D107" s="1" t="str">
         <f aca="false">IF(ISBLANK(A107),"",C107)</f>
         <v/>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C108" s="1" t="str">
-        <f aca="false">A108 &amp;" " &amp;"""" &amp;B108 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D108" s="1" t="str">
         <f aca="false">IF(ISBLANK(A108),"",C108)</f>
         <v/>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C109" s="1" t="str">
-        <f aca="false">A109 &amp;" " &amp;"""" &amp;B109 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D109" s="1" t="str">
         <f aca="false">IF(ISBLANK(A109),"",C109)</f>
         <v/>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C110" s="1" t="str">
-        <f aca="false">A110 &amp;" " &amp;"""" &amp;B110 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D110" s="1" t="str">
         <f aca="false">IF(ISBLANK(A110),"",C110)</f>
         <v/>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C111" s="1" t="str">
-        <f aca="false">A111 &amp;" " &amp;"""" &amp;B111 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D111" s="1" t="str">
         <f aca="false">IF(ISBLANK(A111),"",C111)</f>
         <v/>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C112" s="1" t="str">
-        <f aca="false">A112 &amp;" " &amp;"""" &amp;B112 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D112" s="1" t="str">
         <f aca="false">IF(ISBLANK(A112),"",C112)</f>
         <v/>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C113" s="1" t="str">
-        <f aca="false">A113 &amp;" " &amp;"""" &amp;B113 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D113" s="1" t="str">
         <f aca="false">IF(ISBLANK(A113),"",C113)</f>
         <v/>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C114" s="1" t="str">
-        <f aca="false">A114 &amp;" " &amp;"""" &amp;B114 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D114" s="1" t="str">
         <f aca="false">IF(ISBLANK(A114),"",C114)</f>
         <v/>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C115" s="1" t="str">
-        <f aca="false">A115 &amp;" " &amp;"""" &amp;B115 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D115" s="1" t="str">
         <f aca="false">IF(ISBLANK(A115),"",C115)</f>
         <v/>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C116" s="1" t="str">
-        <f aca="false">A116 &amp;" " &amp;"""" &amp;B116 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D116" s="1" t="str">
         <f aca="false">IF(ISBLANK(A116),"",C116)</f>
         <v/>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C117" s="1" t="str">
-        <f aca="false">A117 &amp;" " &amp;"""" &amp;B117 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D117" s="1" t="str">
         <f aca="false">IF(ISBLANK(A117),"",C117)</f>
         <v/>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C118" s="1" t="str">
-        <f aca="false">A118 &amp;" " &amp;"""" &amp;B118 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D118" s="1" t="str">
         <f aca="false">IF(ISBLANK(A118),"",C118)</f>
         <v/>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C119" s="1" t="str">
-        <f aca="false">A119 &amp;" " &amp;"""" &amp;B119 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D119" s="1" t="str">
         <f aca="false">IF(ISBLANK(A119),"",C119)</f>
         <v/>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C120" s="1" t="str">
-        <f aca="false">A120 &amp;" " &amp;"""" &amp;B120 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D120" s="1" t="str">
         <f aca="false">IF(ISBLANK(A120),"",C120)</f>
         <v/>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C121" s="1" t="str">
-        <f aca="false">A121 &amp;" " &amp;"""" &amp;B121 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D121" s="1" t="str">
         <f aca="false">IF(ISBLANK(A121),"",C121)</f>
         <v/>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C122" s="1" t="str">
-        <f aca="false">A122 &amp;" " &amp;"""" &amp;B122 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D122" s="1" t="str">
         <f aca="false">IF(ISBLANK(A122),"",C122)</f>
         <v/>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C123" s="1" t="str">
-        <f aca="false">A123 &amp;" " &amp;"""" &amp;B123 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D123" s="1" t="str">
         <f aca="false">IF(ISBLANK(A123),"",C123)</f>
         <v/>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C124" s="1" t="str">
-        <f aca="false">A124 &amp;" " &amp;"""" &amp;B124 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D124" s="1" t="str">
         <f aca="false">IF(ISBLANK(A124),"",C124)</f>
         <v/>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C125" s="1" t="str">
-        <f aca="false">A125 &amp;" " &amp;"""" &amp;B125 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D125" s="1" t="str">
         <f aca="false">IF(ISBLANK(A125),"",C125)</f>
         <v/>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C126" s="1" t="str">
-        <f aca="false">A126 &amp;" " &amp;"""" &amp;B126 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D126" s="1" t="str">
         <f aca="false">IF(ISBLANK(A126),"",C126)</f>
         <v/>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C127" s="1" t="str">
-        <f aca="false">A127 &amp;" " &amp;"""" &amp;B127 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D127" s="1" t="str">
         <f aca="false">IF(ISBLANK(A127),"",C127)</f>
         <v/>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C128" s="1" t="str">
-        <f aca="false">A128 &amp;" " &amp;"""" &amp;B128 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D128" s="1" t="str">
         <f aca="false">IF(ISBLANK(A128),"",C128)</f>
         <v/>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C129" s="1" t="str">
-        <f aca="false">A129 &amp;" " &amp;"""" &amp;B129 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D129" s="1" t="str">
         <f aca="false">IF(ISBLANK(A129),"",C129)</f>
         <v/>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C130" s="1" t="str">
-        <f aca="false">A130 &amp;" " &amp;"""" &amp;B130 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D130" s="1" t="str">
         <f aca="false">IF(ISBLANK(A130),"",C130)</f>
         <v/>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C131" s="1" t="str">
-        <f aca="false">A131 &amp;" " &amp;"""" &amp;B131 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D131" s="1" t="str">
         <f aca="false">IF(ISBLANK(A131),"",C131)</f>
         <v/>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C132" s="1" t="str">
-        <f aca="false">A132 &amp;" " &amp;"""" &amp;B132 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D132" s="1" t="str">
         <f aca="false">IF(ISBLANK(A132),"",C132)</f>
         <v/>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C133" s="1" t="str">
-        <f aca="false">A133 &amp;" " &amp;"""" &amp;B133 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D133" s="1" t="str">
         <f aca="false">IF(ISBLANK(A133),"",C133)</f>
         <v/>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C134" s="1" t="str">
-        <f aca="false">A134 &amp;" " &amp;"""" &amp;B134 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D134" s="1" t="str">
         <f aca="false">IF(ISBLANK(A134),"",C134)</f>
         <v/>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C135" s="1" t="str">
-        <f aca="false">A135 &amp;" " &amp;"""" &amp;B135 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D135" s="1" t="str">
         <f aca="false">IF(ISBLANK(A135),"",C135)</f>
         <v/>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C136" s="1" t="str">
-        <f aca="false">A136 &amp;" " &amp;"""" &amp;B136 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D136" s="1" t="str">
         <f aca="false">IF(ISBLANK(A136),"",C136)</f>
         <v/>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C137" s="1" t="str">
-        <f aca="false">A137 &amp;" " &amp;"""" &amp;B137 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D137" s="1" t="str">
         <f aca="false">IF(ISBLANK(A137),"",C137)</f>
         <v/>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C138" s="1" t="str">
-        <f aca="false">A138 &amp;" " &amp;"""" &amp;B138 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D138" s="1" t="str">
         <f aca="false">IF(ISBLANK(A138),"",C138)</f>
         <v/>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C139" s="1" t="str">
-        <f aca="false">A139 &amp;" " &amp;"""" &amp;B139 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D139" s="1" t="str">
         <f aca="false">IF(ISBLANK(A139),"",C139)</f>
         <v/>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C140" s="1" t="str">
-        <f aca="false">A140 &amp;" " &amp;"""" &amp;B140 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D140" s="1" t="str">
         <f aca="false">IF(ISBLANK(A140),"",C140)</f>
         <v/>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C141" s="1" t="str">
-        <f aca="false">A141 &amp;" " &amp;"""" &amp;B141 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D141" s="1" t="str">
         <f aca="false">IF(ISBLANK(A141),"",C141)</f>
         <v/>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C142" s="1" t="str">
-        <f aca="false">A142 &amp;" " &amp;"""" &amp;B142 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D142" s="1" t="str">
         <f aca="false">IF(ISBLANK(A142),"",C142)</f>
         <v/>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C143" s="1" t="str">
-        <f aca="false">A143 &amp;" " &amp;"""" &amp;B143 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D143" s="1" t="str">
         <f aca="false">IF(ISBLANK(A143),"",C143)</f>
         <v/>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C144" s="1" t="str">
-        <f aca="false">A144 &amp;" " &amp;"""" &amp;B144 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D144" s="1" t="str">
         <f aca="false">IF(ISBLANK(A144),"",C144)</f>
         <v/>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C145" s="1" t="str">
-        <f aca="false">A145 &amp;" " &amp;"""" &amp;B145 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D145" s="1" t="str">
         <f aca="false">IF(ISBLANK(A145),"",C145)</f>
         <v/>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C146" s="1" t="str">
-        <f aca="false">A146 &amp;" " &amp;"""" &amp;B146 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D146" s="1" t="str">
         <f aca="false">IF(ISBLANK(A146),"",C146)</f>
         <v/>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C147" s="1" t="str">
-        <f aca="false">A147 &amp;" " &amp;"""" &amp;B147 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D147" s="1" t="str">
         <f aca="false">IF(ISBLANK(A147),"",C147)</f>
         <v/>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C148" s="1" t="str">
-        <f aca="false">A148 &amp;" " &amp;"""" &amp;B148 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D148" s="1" t="str">
         <f aca="false">IF(ISBLANK(A148),"",C148)</f>
         <v/>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C149" s="1" t="str">
-        <f aca="false">A149 &amp;" " &amp;"""" &amp;B149 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D149" s="1" t="str">
         <f aca="false">IF(ISBLANK(A149),"",C149)</f>
         <v/>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C150" s="1" t="str">
-        <f aca="false">A150 &amp;" " &amp;"""" &amp;B150 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D150" s="1" t="str">
         <f aca="false">IF(ISBLANK(A150),"",C150)</f>
         <v/>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C151" s="1" t="str">
-        <f aca="false">A151 &amp;" " &amp;"""" &amp;B151 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D151" s="1" t="str">
         <f aca="false">IF(ISBLANK(A151),"",C151)</f>
         <v/>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C152" s="1" t="str">
-        <f aca="false">A152 &amp;" " &amp;"""" &amp;B152 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D152" s="1" t="str">
         <f aca="false">IF(ISBLANK(A152),"",C152)</f>
         <v/>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C153" s="1" t="str">
-        <f aca="false">A153 &amp;" " &amp;"""" &amp;B153 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D153" s="1" t="str">
         <f aca="false">IF(ISBLANK(A153),"",C153)</f>
         <v/>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C154" s="1" t="str">
-        <f aca="false">A154 &amp;" " &amp;"""" &amp;B154 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D154" s="1" t="str">
         <f aca="false">IF(ISBLANK(A154),"",C154)</f>
         <v/>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C155" s="1" t="str">
-        <f aca="false">A155 &amp;" " &amp;"""" &amp;B155 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D155" s="1" t="str">
         <f aca="false">IF(ISBLANK(A155),"",C155)</f>
         <v/>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C156" s="1" t="str">
-        <f aca="false">A156 &amp;" " &amp;"""" &amp;B156 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D156" s="1" t="str">
         <f aca="false">IF(ISBLANK(A156),"",C156)</f>
         <v/>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C157" s="1" t="str">
-        <f aca="false">A157 &amp;" " &amp;"""" &amp;B157 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D157" s="1" t="str">
         <f aca="false">IF(ISBLANK(A157),"",C157)</f>
         <v/>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C158" s="1" t="str">
-        <f aca="false">A158 &amp;" " &amp;"""" &amp;B158 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D158" s="1" t="str">
         <f aca="false">IF(ISBLANK(A158),"",C158)</f>
         <v/>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C159" s="1" t="str">
-        <f aca="false">A159 &amp;" " &amp;"""" &amp;B159 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D159" s="1" t="str">
         <f aca="false">IF(ISBLANK(A159),"",C159)</f>
         <v/>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C160" s="1" t="str">
-        <f aca="false">A160 &amp;" " &amp;"""" &amp;B160 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D160" s="1" t="str">
         <f aca="false">IF(ISBLANK(A160),"",C160)</f>
         <v/>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C161" s="1" t="str">
-        <f aca="false">A161 &amp;" " &amp;"""" &amp;B161 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D161" s="1" t="str">
         <f aca="false">IF(ISBLANK(A161),"",C161)</f>
         <v/>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C162" s="1" t="str">
-        <f aca="false">A162 &amp;" " &amp;"""" &amp;B162 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D162" s="1" t="str">
         <f aca="false">IF(ISBLANK(A162),"",C162)</f>
         <v/>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C163" s="1" t="str">
-        <f aca="false">A163 &amp;" " &amp;"""" &amp;B163 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D163" s="1" t="str">
         <f aca="false">IF(ISBLANK(A163),"",C163)</f>
         <v/>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C164" s="1" t="str">
-        <f aca="false">A164 &amp;" " &amp;"""" &amp;B164 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D164" s="1" t="str">
         <f aca="false">IF(ISBLANK(A164),"",C164)</f>
         <v/>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C165" s="1" t="str">
-        <f aca="false">A165 &amp;" " &amp;"""" &amp;B165 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D165" s="1" t="str">
         <f aca="false">IF(ISBLANK(A165),"",C165)</f>
         <v/>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C166" s="1" t="str">
-        <f aca="false">A166 &amp;" " &amp;"""" &amp;B166 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D166" s="1" t="str">
         <f aca="false">IF(ISBLANK(A166),"",C166)</f>
         <v/>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C167" s="1" t="str">
-        <f aca="false">A167 &amp;" " &amp;"""" &amp;B167 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D167" s="1" t="str">
         <f aca="false">IF(ISBLANK(A167),"",C167)</f>
         <v/>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C168" s="1" t="str">
-        <f aca="false">A168 &amp;" " &amp;"""" &amp;B168 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D168" s="1" t="str">
         <f aca="false">IF(ISBLANK(A168),"",C168)</f>
         <v/>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C169" s="1" t="str">
-        <f aca="false">A169 &amp;" " &amp;"""" &amp;B169 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D169" s="1" t="str">
         <f aca="false">IF(ISBLANK(A169),"",C169)</f>
         <v/>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C170" s="1" t="str">
-        <f aca="false">A170 &amp;" " &amp;"""" &amp;B170 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D170" s="1" t="str">
         <f aca="false">IF(ISBLANK(A170),"",C170)</f>
         <v/>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C171" s="1" t="str">
-        <f aca="false">A171 &amp;" " &amp;"""" &amp;B171 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D171" s="1" t="str">
         <f aca="false">IF(ISBLANK(A171),"",C171)</f>
         <v/>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C172" s="1" t="str">
-        <f aca="false">A172 &amp;" " &amp;"""" &amp;B172 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D172" s="1" t="str">
         <f aca="false">IF(ISBLANK(A172),"",C172)</f>
         <v/>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C173" s="1" t="str">
-        <f aca="false">A173 &amp;" " &amp;"""" &amp;B173 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D173" s="1" t="str">
         <f aca="false">IF(ISBLANK(A173),"",C173)</f>
         <v/>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C174" s="1" t="str">
-        <f aca="false">A174 &amp;" " &amp;"""" &amp;B174 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D174" s="1" t="str">
         <f aca="false">IF(ISBLANK(A174),"",C174)</f>
         <v/>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C175" s="1" t="str">
-        <f aca="false">A175 &amp;" " &amp;"""" &amp;B175 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D175" s="1" t="str">
         <f aca="false">IF(ISBLANK(A175),"",C175)</f>
         <v/>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C176" s="1" t="str">
-        <f aca="false">A176 &amp;" " &amp;"""" &amp;B176 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D176" s="1" t="str">
         <f aca="false">IF(ISBLANK(A176),"",C176)</f>
         <v/>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C177" s="1" t="str">
-        <f aca="false">A177 &amp;" " &amp;"""" &amp;B177 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D177" s="1" t="str">
         <f aca="false">IF(ISBLANK(A177),"",C177)</f>
         <v/>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C178" s="1" t="str">
-        <f aca="false">A178 &amp;" " &amp;"""" &amp;B178 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D178" s="1" t="str">
         <f aca="false">IF(ISBLANK(A178),"",C178)</f>
         <v/>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C179" s="1" t="str">
-        <f aca="false">A179 &amp;" " &amp;"""" &amp;B179 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D179" s="1" t="str">
         <f aca="false">IF(ISBLANK(A179),"",C179)</f>
         <v/>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C180" s="1" t="str">
-        <f aca="false">A180 &amp;" " &amp;"""" &amp;B180 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D180" s="1" t="str">
         <f aca="false">IF(ISBLANK(A180),"",C180)</f>
         <v/>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C181" s="1" t="str">
-        <f aca="false">A181 &amp;" " &amp;"""" &amp;B181 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D181" s="1" t="str">
         <f aca="false">IF(ISBLANK(A181),"",C181)</f>
         <v/>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C182" s="1" t="str">
-        <f aca="false">A182 &amp;" " &amp;"""" &amp;B182 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D182" s="1" t="str">
         <f aca="false">IF(ISBLANK(A182),"",C182)</f>
         <v/>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C183" s="1" t="str">
-        <f aca="false">A183 &amp;" " &amp;"""" &amp;B183 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D183" s="1" t="str">
         <f aca="false">IF(ISBLANK(A183),"",C183)</f>
         <v/>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C184" s="1" t="str">
-        <f aca="false">A184 &amp;" " &amp;"""" &amp;B184 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D184" s="1" t="str">
         <f aca="false">IF(ISBLANK(A184),"",C184)</f>
         <v/>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C185" s="1" t="str">
-        <f aca="false">A185 &amp;" " &amp;"""" &amp;B185 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D185" s="1" t="str">
         <f aca="false">IF(ISBLANK(A185),"",C185)</f>
         <v/>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C186" s="1" t="str">
-        <f aca="false">A186 &amp;" " &amp;"""" &amp;B186 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D186" s="1" t="str">
         <f aca="false">IF(ISBLANK(A186),"",C186)</f>
         <v/>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C187" s="1" t="str">
-        <f aca="false">A187 &amp;" " &amp;"""" &amp;B187 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D187" s="1" t="str">
         <f aca="false">IF(ISBLANK(A187),"",C187)</f>
         <v/>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C188" s="1" t="str">
-        <f aca="false">A188 &amp;" " &amp;"""" &amp;B188 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D188" s="1" t="str">
         <f aca="false">IF(ISBLANK(A188),"",C188)</f>
         <v/>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C189" s="1" t="str">
-        <f aca="false">A189 &amp;" " &amp;"""" &amp;B189 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D189" s="1" t="str">
         <f aca="false">IF(ISBLANK(A189),"",C189)</f>
         <v/>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C190" s="1" t="str">
-        <f aca="false">A190 &amp;" " &amp;"""" &amp;B190 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D190" s="1" t="str">
         <f aca="false">IF(ISBLANK(A190),"",C190)</f>
         <v/>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C191" s="1" t="str">
-        <f aca="false">A191 &amp;" " &amp;"""" &amp;B191 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D191" s="1" t="str">
         <f aca="false">IF(ISBLANK(A191),"",C191)</f>
         <v/>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C192" s="1" t="str">
-        <f aca="false">A192 &amp;" " &amp;"""" &amp;B192 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D192" s="1" t="str">
         <f aca="false">IF(ISBLANK(A192),"",C192)</f>
         <v/>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C193" s="1" t="str">
-        <f aca="false">A193 &amp;" " &amp;"""" &amp;B193 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D193" s="1" t="str">
         <f aca="false">IF(ISBLANK(A193),"",C193)</f>
         <v/>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C194" s="1" t="str">
-        <f aca="false">A194 &amp;" " &amp;"""" &amp;B194 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D194" s="1" t="str">
         <f aca="false">IF(ISBLANK(A194),"",C194)</f>
         <v/>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C195" s="1" t="str">
-        <f aca="false">A195 &amp;" " &amp;"""" &amp;B195 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D195" s="1" t="str">
         <f aca="false">IF(ISBLANK(A195),"",C195)</f>
         <v/>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C196" s="1" t="str">
-        <f aca="false">A196 &amp;" " &amp;"""" &amp;B196 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D196" s="1" t="str">
         <f aca="false">IF(ISBLANK(A196),"",C196)</f>
         <v/>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C197" s="1" t="str">
-        <f aca="false">A197 &amp;" " &amp;"""" &amp;B197 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D197" s="1" t="str">
         <f aca="false">IF(ISBLANK(A197),"",C197)</f>
         <v/>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C198" s="1" t="str">
-        <f aca="false">A198 &amp;" " &amp;"""" &amp;B198 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D198" s="1" t="str">
         <f aca="false">IF(ISBLANK(A198),"",C198)</f>
         <v/>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C199" s="1" t="str">
-        <f aca="false">A199 &amp;" " &amp;"""" &amp;B199 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D199" s="1" t="str">
         <f aca="false">IF(ISBLANK(A199),"",C199)</f>
         <v/>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C200" s="1" t="str">
-        <f aca="false">A200 &amp;" " &amp;"""" &amp;B200 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D200" s="1" t="str">
         <f aca="false">IF(ISBLANK(A200),"",C200)</f>
         <v/>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C201" s="1" t="str">
-        <f aca="false">A201 &amp;" " &amp;"""" &amp;B201 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D201" s="1" t="str">
         <f aca="false">IF(ISBLANK(A201),"",C201)</f>
         <v/>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C202" s="1" t="str">
-        <f aca="false">A202 &amp;" " &amp;"""" &amp;B202 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D202" s="1" t="str">
         <f aca="false">IF(ISBLANK(A202),"",C202)</f>
         <v/>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C203" s="1" t="str">
-        <f aca="false">A203 &amp;" " &amp;"""" &amp;B203 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D203" s="1" t="str">
         <f aca="false">IF(ISBLANK(A203),"",C203)</f>
         <v/>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C204" s="1" t="str">
-        <f aca="false">A204 &amp;" " &amp;"""" &amp;B204 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D204" s="1" t="str">
         <f aca="false">IF(ISBLANK(A204),"",C204)</f>
         <v/>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C205" s="1" t="str">
-        <f aca="false">A205 &amp;" " &amp;"""" &amp;B205 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D205" s="1" t="str">
         <f aca="false">IF(ISBLANK(A205),"",C205)</f>
         <v/>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C206" s="1" t="str">
-        <f aca="false">A206 &amp;" " &amp;"""" &amp;B206 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D206" s="1" t="str">
         <f aca="false">IF(ISBLANK(A206),"",C206)</f>
         <v/>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C207" s="1" t="str">
-        <f aca="false">A207 &amp;" " &amp;"""" &amp;B207 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D207" s="1" t="str">
         <f aca="false">IF(ISBLANK(A207),"",C207)</f>
         <v/>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C208" s="1" t="str">
-        <f aca="false">A208 &amp;" " &amp;"""" &amp;B208 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D208" s="1" t="str">
         <f aca="false">IF(ISBLANK(A208),"",C208)</f>
         <v/>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C209" s="1" t="str">
-        <f aca="false">A209 &amp;" " &amp;"""" &amp;B209 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D209" s="1" t="str">
         <f aca="false">IF(ISBLANK(A209),"",C209)</f>
         <v/>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C210" s="1" t="str">
-        <f aca="false">A210 &amp;" " &amp;"""" &amp;B210 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D210" s="1" t="str">
         <f aca="false">IF(ISBLANK(A210),"",C210)</f>
         <v/>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C211" s="1" t="str">
-        <f aca="false">A211 &amp;" " &amp;"""" &amp;B211 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D211" s="1" t="str">
         <f aca="false">IF(ISBLANK(A211),"",C211)</f>
         <v/>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C212" s="1" t="str">
-        <f aca="false">A212 &amp;" " &amp;"""" &amp;B212 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D212" s="1" t="str">
         <f aca="false">IF(ISBLANK(A212),"",C212)</f>
         <v/>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C213" s="1" t="str">
-        <f aca="false">A213 &amp;" " &amp;"""" &amp;B213 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D213" s="1" t="str">
         <f aca="false">IF(ISBLANK(A213),"",C213)</f>
         <v/>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C214" s="1" t="str">
-        <f aca="false">A214 &amp;" " &amp;"""" &amp;B214 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D214" s="1" t="str">
         <f aca="false">IF(ISBLANK(A214),"",C214)</f>
         <v/>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C215" s="1" t="str">
-        <f aca="false">A215 &amp;" " &amp;"""" &amp;B215 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D215" s="1" t="str">
         <f aca="false">IF(ISBLANK(A215),"",C215)</f>
         <v/>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C216" s="1" t="str">
-        <f aca="false">A216 &amp;" " &amp;"""" &amp;B216 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D216" s="1" t="str">
         <f aca="false">IF(ISBLANK(A216),"",C216)</f>
         <v/>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C217" s="1" t="str">
-        <f aca="false">A217 &amp;" " &amp;"""" &amp;B217 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D217" s="1" t="str">
         <f aca="false">IF(ISBLANK(A217),"",C217)</f>
         <v/>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C218" s="1" t="str">
-        <f aca="false">A218 &amp;" " &amp;"""" &amp;B218 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D218" s="1" t="str">
         <f aca="false">IF(ISBLANK(A218),"",C218)</f>
         <v/>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C219" s="1" t="str">
-        <f aca="false">A219 &amp;" " &amp;"""" &amp;B219 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D219" s="1" t="str">
         <f aca="false">IF(ISBLANK(A219),"",C219)</f>
         <v/>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C220" s="1" t="str">
-        <f aca="false">A220 &amp;" " &amp;"""" &amp;B220 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D220" s="1" t="str">
         <f aca="false">IF(ISBLANK(A220),"",C220)</f>
         <v/>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C221" s="1" t="str">
-        <f aca="false">A221 &amp;" " &amp;"""" &amp;B221 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D221" s="1" t="str">
         <f aca="false">IF(ISBLANK(A221),"",C221)</f>
         <v/>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C222" s="1" t="str">
-        <f aca="false">A222 &amp;" " &amp;"""" &amp;B222 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D222" s="1" t="str">
         <f aca="false">IF(ISBLANK(A222),"",C222)</f>
         <v/>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C223" s="1" t="str">
-        <f aca="false">A223 &amp;" " &amp;"""" &amp;B223 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D223" s="1" t="str">
         <f aca="false">IF(ISBLANK(A223),"",C223)</f>
         <v/>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C224" s="1" t="str">
-        <f aca="false">A224 &amp;" " &amp;"""" &amp;B224 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D224" s="1" t="str">
         <f aca="false">IF(ISBLANK(A224),"",C224)</f>
         <v/>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C225" s="1" t="str">
-        <f aca="false">A225 &amp;" " &amp;"""" &amp;B225 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D225" s="1" t="str">
         <f aca="false">IF(ISBLANK(A225),"",C225)</f>
         <v/>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C226" s="1" t="str">
-        <f aca="false">A226 &amp;" " &amp;"""" &amp;B226 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D226" s="1" t="str">
         <f aca="false">IF(ISBLANK(A226),"",C226)</f>
         <v/>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C227" s="1" t="str">
-        <f aca="false">A227 &amp;" " &amp;"""" &amp;B227 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D227" s="1" t="str">
         <f aca="false">IF(ISBLANK(A227),"",C227)</f>
         <v/>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C228" s="1" t="str">
-        <f aca="false">A228 &amp;" " &amp;"""" &amp;B228 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D228" s="1" t="str">
         <f aca="false">IF(ISBLANK(A228),"",C228)</f>
         <v/>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C229" s="1" t="str">
-        <f aca="false">A229 &amp;" " &amp;"""" &amp;B229 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D229" s="1" t="str">
         <f aca="false">IF(ISBLANK(A229),"",C229)</f>
         <v/>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C230" s="1" t="str">
-        <f aca="false">A230 &amp;" " &amp;"""" &amp;B230 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D230" s="1" t="str">
         <f aca="false">IF(ISBLANK(A230),"",C230)</f>
         <v/>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C231" s="1" t="str">
-        <f aca="false">A231 &amp;" " &amp;"""" &amp;B231 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D231" s="1" t="str">
         <f aca="false">IF(ISBLANK(A231),"",C231)</f>
         <v/>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C232" s="1" t="str">
-        <f aca="false">A232 &amp;" " &amp;"""" &amp;B232 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D232" s="1" t="str">
         <f aca="false">IF(ISBLANK(A232),"",C232)</f>
         <v/>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C233" s="1" t="str">
-        <f aca="false">A233 &amp;" " &amp;"""" &amp;B233 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D233" s="1" t="str">
         <f aca="false">IF(ISBLANK(A233),"",C233)</f>
         <v/>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C234" s="1" t="str">
-        <f aca="false">A234 &amp;" " &amp;"""" &amp;B234 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D234" s="1" t="str">
         <f aca="false">IF(ISBLANK(A234),"",C234)</f>
         <v/>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C235" s="1" t="str">
-        <f aca="false">A235 &amp;" " &amp;"""" &amp;B235 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D235" s="1" t="str">
         <f aca="false">IF(ISBLANK(A235),"",C235)</f>
         <v/>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C236" s="1" t="str">
-        <f aca="false">A236 &amp;" " &amp;"""" &amp;B236 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D236" s="1" t="str">
         <f aca="false">IF(ISBLANK(A236),"",C236)</f>
         <v/>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C237" s="1" t="str">
-        <f aca="false">A237 &amp;" " &amp;"""" &amp;B237 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D237" s="1" t="str">
         <f aca="false">IF(ISBLANK(A237),"",C237)</f>
         <v/>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C238" s="1" t="str">
-        <f aca="false">A238 &amp;" " &amp;"""" &amp;B238 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D238" s="1" t="str">
         <f aca="false">IF(ISBLANK(A238),"",C238)</f>
         <v/>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C239" s="1" t="str">
-        <f aca="false">A239 &amp;" " &amp;"""" &amp;B239 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D239" s="1" t="str">
         <f aca="false">IF(ISBLANK(A239),"",C239)</f>
         <v/>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C240" s="1" t="str">
-        <f aca="false">A240 &amp;" " &amp;"""" &amp;B240 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D240" s="1" t="str">
         <f aca="false">IF(ISBLANK(A240),"",C240)</f>
         <v/>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C241" s="1" t="str">
-        <f aca="false">A241 &amp;" " &amp;"""" &amp;B241 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D241" s="1" t="str">
         <f aca="false">IF(ISBLANK(A241),"",C241)</f>
         <v/>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C242" s="1" t="str">
-        <f aca="false">A242 &amp;" " &amp;"""" &amp;B242 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D242" s="1" t="str">
         <f aca="false">IF(ISBLANK(A242),"",C242)</f>
         <v/>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C243" s="1" t="str">
-        <f aca="false">A243 &amp;" " &amp;"""" &amp;B243 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D243" s="1" t="str">
         <f aca="false">IF(ISBLANK(A243),"",C243)</f>
         <v/>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C244" s="1" t="str">
-        <f aca="false">A244 &amp;" " &amp;"""" &amp;B244 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D244" s="1" t="str">
         <f aca="false">IF(ISBLANK(A244),"",C244)</f>
         <v/>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C245" s="1" t="str">
-        <f aca="false">A245 &amp;" " &amp;"""" &amp;B245 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D245" s="1" t="str">
         <f aca="false">IF(ISBLANK(A245),"",C245)</f>
         <v/>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C246" s="1" t="str">
-        <f aca="false">A246 &amp;" " &amp;"""" &amp;B246 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D246" s="1" t="str">
         <f aca="false">IF(ISBLANK(A246),"",C246)</f>
         <v/>
       </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C247" s="1" t="str">
-        <f aca="false">A247 &amp;" " &amp;"""" &amp;B247 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D247" s="1" t="str">
         <f aca="false">IF(ISBLANK(A247),"",C247)</f>
         <v/>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C248" s="1" t="str">
-        <f aca="false">A248 &amp;" " &amp;"""" &amp;B248 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D248" s="1" t="str">
         <f aca="false">IF(ISBLANK(A248),"",C248)</f>
         <v/>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C249" s="1" t="str">
-        <f aca="false">A249 &amp;" " &amp;"""" &amp;B249 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D249" s="1" t="str">
         <f aca="false">IF(ISBLANK(A249),"",C249)</f>
         <v/>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C250" s="1" t="str">
-        <f aca="false">A250 &amp;" " &amp;"""" &amp;B250 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D250" s="1" t="str">
         <f aca="false">IF(ISBLANK(A250),"",C250)</f>
         <v/>
       </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C251" s="1" t="str">
-        <f aca="false">A251 &amp;" " &amp;"""" &amp;B251 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D251" s="1" t="str">
         <f aca="false">IF(ISBLANK(A251),"",C251)</f>
         <v/>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C252" s="1" t="str">
-        <f aca="false">A252 &amp;" " &amp;"""" &amp;B252 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D252" s="1" t="str">
         <f aca="false">IF(ISBLANK(A252),"",C252)</f>
         <v/>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C253" s="1" t="str">
-        <f aca="false">A253 &amp;" " &amp;"""" &amp;B253 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D253" s="1" t="str">
         <f aca="false">IF(ISBLANK(A253),"",C253)</f>
         <v/>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C254" s="1" t="str">
-        <f aca="false">A254 &amp;" " &amp;"""" &amp;B254 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D254" s="1" t="str">
         <f aca="false">IF(ISBLANK(A254),"",C254)</f>
         <v/>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C255" s="1" t="str">
-        <f aca="false">A255 &amp;" " &amp;"""" &amp;B255 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D255" s="1" t="str">
         <f aca="false">IF(ISBLANK(A255),"",C255)</f>
         <v/>
       </c>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C256" s="1" t="str">
-        <f aca="false">A256 &amp;" " &amp;"""" &amp;B256 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D256" s="1" t="str">
         <f aca="false">IF(ISBLANK(A256),"",C256)</f>
         <v/>
       </c>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C257" s="1" t="str">
-        <f aca="false">A257 &amp;" " &amp;"""" &amp;B257 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D257" s="1" t="str">
         <f aca="false">IF(ISBLANK(A257),"",C257)</f>
         <v/>
       </c>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C258" s="1" t="str">
-        <f aca="false">A258 &amp;" " &amp;"""" &amp;B258 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D258" s="1" t="str">
         <f aca="false">IF(ISBLANK(A258),"",C258)</f>
         <v/>
       </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C259" s="1" t="str">
-        <f aca="false">A259 &amp;" " &amp;"""" &amp;B259 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D259" s="1" t="str">
         <f aca="false">IF(ISBLANK(A259),"",C259)</f>
         <v/>
       </c>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C260" s="1" t="str">
-        <f aca="false">A260 &amp;" " &amp;"""" &amp;B260 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D260" s="1" t="str">
         <f aca="false">IF(ISBLANK(A260),"",C260)</f>
         <v/>
       </c>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C261" s="1" t="str">
-        <f aca="false">A261 &amp;" " &amp;"""" &amp;B261 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D261" s="1" t="str">
         <f aca="false">IF(ISBLANK(A261),"",C261)</f>
         <v/>
       </c>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C262" s="1" t="str">
-        <f aca="false">A262 &amp;" " &amp;"""" &amp;B262 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D262" s="1" t="str">
         <f aca="false">IF(ISBLANK(A262),"",C262)</f>
         <v/>
       </c>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C263" s="1" t="str">
-        <f aca="false">A263 &amp;" " &amp;"""" &amp;B263 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D263" s="1" t="str">
         <f aca="false">IF(ISBLANK(A263),"",C263)</f>
         <v/>
       </c>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C264" s="1" t="str">
-        <f aca="false">A264 &amp;" " &amp;"""" &amp;B264 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D264" s="1" t="str">
         <f aca="false">IF(ISBLANK(A264),"",C264)</f>
         <v/>
       </c>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C265" s="1" t="str">
-        <f aca="false">A265 &amp;" " &amp;"""" &amp;B265 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D265" s="1" t="str">
         <f aca="false">IF(ISBLANK(A265),"",C265)</f>
         <v/>
       </c>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C266" s="1" t="str">
-        <f aca="false">A266 &amp;" " &amp;"""" &amp;B266 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D266" s="1" t="str">
         <f aca="false">IF(ISBLANK(A266),"",C266)</f>
         <v/>
       </c>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C267" s="1" t="str">
-        <f aca="false">A267 &amp;" " &amp;"""" &amp;B267 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D267" s="1" t="str">
         <f aca="false">IF(ISBLANK(A267),"",C267)</f>
         <v/>
       </c>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C268" s="1" t="str">
-        <f aca="false">A268 &amp;" " &amp;"""" &amp;B268 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D268" s="1" t="str">
         <f aca="false">IF(ISBLANK(A268),"",C268)</f>
         <v/>
       </c>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C269" s="1" t="str">
-        <f aca="false">A269 &amp;" " &amp;"""" &amp;B269 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D269" s="1" t="str">
         <f aca="false">IF(ISBLANK(A269),"",C269)</f>
         <v/>
       </c>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C270" s="1" t="str">
-        <f aca="false">A270 &amp;" " &amp;"""" &amp;B270 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D270" s="1" t="str">
         <f aca="false">IF(ISBLANK(A270),"",C270)</f>
         <v/>
       </c>
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C271" s="1" t="str">
-        <f aca="false">A271 &amp;" " &amp;"""" &amp;B271 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D271" s="1" t="str">
         <f aca="false">IF(ISBLANK(A271),"",C271)</f>
         <v/>
       </c>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C272" s="1" t="str">
-        <f aca="false">A272 &amp;" " &amp;"""" &amp;B272 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D272" s="1" t="str">
         <f aca="false">IF(ISBLANK(A272),"",C272)</f>
         <v/>
       </c>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C273" s="1" t="str">
-        <f aca="false">A273 &amp;" " &amp;"""" &amp;B273 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D273" s="1" t="str">
         <f aca="false">IF(ISBLANK(A273),"",C273)</f>
         <v/>
       </c>
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C274" s="1" t="str">
-        <f aca="false">A274 &amp;" " &amp;"""" &amp;B274 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D274" s="1" t="str">
         <f aca="false">IF(ISBLANK(A274),"",C274)</f>
         <v/>
       </c>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C275" s="1" t="str">
-        <f aca="false">A275 &amp;" " &amp;"""" &amp;B275 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D275" s="1" t="str">
         <f aca="false">IF(ISBLANK(A275),"",C275)</f>
         <v/>
       </c>
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C276" s="1" t="str">
-        <f aca="false">A276 &amp;" " &amp;"""" &amp;B276 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D276" s="1" t="str">
         <f aca="false">IF(ISBLANK(A276),"",C276)</f>
         <v/>
       </c>
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C277" s="1" t="str">
-        <f aca="false">A277 &amp;" " &amp;"""" &amp;B277 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D277" s="1" t="str">
         <f aca="false">IF(ISBLANK(A277),"",C277)</f>
         <v/>
       </c>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C278" s="1" t="str">
-        <f aca="false">A278 &amp;" " &amp;"""" &amp;B278 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D278" s="1" t="str">
         <f aca="false">IF(ISBLANK(A278),"",C278)</f>
         <v/>
       </c>
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C279" s="1" t="str">
-        <f aca="false">A279 &amp;" " &amp;"""" &amp;B279 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D279" s="1" t="str">
         <f aca="false">IF(ISBLANK(A279),"",C279)</f>
         <v/>
       </c>
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C280" s="1" t="str">
-        <f aca="false">A280 &amp;" " &amp;"""" &amp;B280 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D280" s="1" t="str">
         <f aca="false">IF(ISBLANK(A280),"",C280)</f>
         <v/>
@@ -3946,2110 +3135,1266 @@
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B281" s="2"/>
-      <c r="C281" s="1" t="str">
-        <f aca="false">A281 &amp;" " &amp;"""" &amp;B281 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D281" s="1" t="str">
         <f aca="false">IF(ISBLANK(A281),"",C281)</f>
         <v/>
       </c>
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C282" s="1" t="str">
-        <f aca="false">A282 &amp;" " &amp;"""" &amp;B282 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D282" s="1" t="str">
         <f aca="false">IF(ISBLANK(A282),"",C282)</f>
         <v/>
       </c>
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C283" s="1" t="str">
-        <f aca="false">A283 &amp;" " &amp;"""" &amp;B283 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D283" s="1" t="str">
         <f aca="false">IF(ISBLANK(A283),"",C283)</f>
         <v/>
       </c>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C284" s="1" t="str">
-        <f aca="false">A284 &amp;" " &amp;"""" &amp;B284 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D284" s="1" t="str">
         <f aca="false">IF(ISBLANK(A284),"",C284)</f>
         <v/>
       </c>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C285" s="1" t="str">
-        <f aca="false">A285 &amp;" " &amp;"""" &amp;B285 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D285" s="1" t="str">
         <f aca="false">IF(ISBLANK(A285),"",C285)</f>
         <v/>
       </c>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C286" s="1" t="str">
-        <f aca="false">A286 &amp;" " &amp;"""" &amp;B286 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D286" s="1" t="str">
         <f aca="false">IF(ISBLANK(A286),"",C286)</f>
         <v/>
       </c>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C287" s="1" t="str">
-        <f aca="false">A287 &amp;" " &amp;"""" &amp;B287 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D287" s="1" t="str">
         <f aca="false">IF(ISBLANK(A287),"",C287)</f>
         <v/>
       </c>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C288" s="1" t="str">
-        <f aca="false">A288 &amp;" " &amp;"""" &amp;B288 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D288" s="1" t="str">
         <f aca="false">IF(ISBLANK(A288),"",C288)</f>
         <v/>
       </c>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C289" s="1" t="str">
-        <f aca="false">A289 &amp;" " &amp;"""" &amp;B289 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D289" s="1" t="str">
         <f aca="false">IF(ISBLANK(A289),"",C289)</f>
         <v/>
       </c>
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C290" s="1" t="str">
-        <f aca="false">A290 &amp;" " &amp;"""" &amp;B290 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D290" s="1" t="str">
         <f aca="false">IF(ISBLANK(A290),"",C290)</f>
         <v/>
       </c>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C291" s="1" t="str">
-        <f aca="false">A291 &amp;" " &amp;"""" &amp;B291 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D291" s="1" t="str">
         <f aca="false">IF(ISBLANK(A291),"",C291)</f>
         <v/>
       </c>
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C292" s="1" t="str">
-        <f aca="false">A292 &amp;" " &amp;"""" &amp;B292 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D292" s="1" t="str">
         <f aca="false">IF(ISBLANK(A292),"",C292)</f>
         <v/>
       </c>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C293" s="1" t="str">
-        <f aca="false">A293 &amp;" " &amp;"""" &amp;B293 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D293" s="1" t="str">
         <f aca="false">IF(ISBLANK(A293),"",C293)</f>
         <v/>
       </c>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C294" s="1" t="str">
-        <f aca="false">A294 &amp;" " &amp;"""" &amp;B294 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D294" s="1" t="str">
         <f aca="false">IF(ISBLANK(A294),"",C294)</f>
         <v/>
       </c>
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C295" s="1" t="str">
-        <f aca="false">A295 &amp;" " &amp;"""" &amp;B295 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D295" s="1" t="str">
         <f aca="false">IF(ISBLANK(A295),"",C295)</f>
         <v/>
       </c>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C296" s="1" t="str">
-        <f aca="false">A296 &amp;" " &amp;"""" &amp;B296 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D296" s="1" t="str">
         <f aca="false">IF(ISBLANK(A296),"",C296)</f>
         <v/>
       </c>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C297" s="1" t="str">
-        <f aca="false">A297 &amp;" " &amp;"""" &amp;B297 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D297" s="1" t="str">
         <f aca="false">IF(ISBLANK(A297),"",C297)</f>
         <v/>
       </c>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C298" s="1" t="str">
-        <f aca="false">A298 &amp;" " &amp;"""" &amp;B298 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D298" s="1" t="str">
         <f aca="false">IF(ISBLANK(A298),"",C298)</f>
         <v/>
       </c>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C299" s="1" t="str">
-        <f aca="false">A299 &amp;" " &amp;"""" &amp;B299 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D299" s="1" t="str">
         <f aca="false">IF(ISBLANK(A299),"",C299)</f>
         <v/>
       </c>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C300" s="1" t="str">
-        <f aca="false">A300 &amp;" " &amp;"""" &amp;B300 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D300" s="1" t="str">
         <f aca="false">IF(ISBLANK(A300),"",C300)</f>
         <v/>
       </c>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C301" s="1" t="str">
-        <f aca="false">A301 &amp;" " &amp;"""" &amp;B301 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D301" s="1" t="str">
         <f aca="false">IF(ISBLANK(A301),"",C301)</f>
         <v/>
       </c>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C302" s="1" t="str">
-        <f aca="false">A302 &amp;" " &amp;"""" &amp;B302 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D302" s="1" t="str">
         <f aca="false">IF(ISBLANK(A302),"",C302)</f>
         <v/>
       </c>
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C303" s="1" t="str">
-        <f aca="false">A303 &amp;" " &amp;"""" &amp;B303 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D303" s="1" t="str">
         <f aca="false">IF(ISBLANK(A303),"",C303)</f>
         <v/>
       </c>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C304" s="1" t="str">
-        <f aca="false">A304 &amp;" " &amp;"""" &amp;B304 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D304" s="1" t="str">
         <f aca="false">IF(ISBLANK(A304),"",C304)</f>
         <v/>
       </c>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C305" s="1" t="str">
-        <f aca="false">A305 &amp;" " &amp;"""" &amp;B305 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D305" s="1" t="str">
         <f aca="false">IF(ISBLANK(A305),"",C305)</f>
         <v/>
       </c>
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C306" s="1" t="str">
-        <f aca="false">A306 &amp;" " &amp;"""" &amp;B306 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D306" s="1" t="str">
         <f aca="false">IF(ISBLANK(A306),"",C306)</f>
         <v/>
       </c>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C307" s="1" t="str">
-        <f aca="false">A307 &amp;" " &amp;"""" &amp;B307 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D307" s="1" t="str">
         <f aca="false">IF(ISBLANK(A307),"",C307)</f>
         <v/>
       </c>
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C308" s="1" t="str">
-        <f aca="false">A308 &amp;" " &amp;"""" &amp;B308 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D308" s="1" t="str">
         <f aca="false">IF(ISBLANK(A308),"",C308)</f>
         <v/>
       </c>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C309" s="1" t="str">
-        <f aca="false">A309 &amp;" " &amp;"""" &amp;B309 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D309" s="1" t="str">
         <f aca="false">IF(ISBLANK(A309),"",C309)</f>
         <v/>
       </c>
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C310" s="1" t="str">
-        <f aca="false">A310 &amp;" " &amp;"""" &amp;B310 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D310" s="1" t="str">
         <f aca="false">IF(ISBLANK(A310),"",C310)</f>
         <v/>
       </c>
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C311" s="1" t="str">
-        <f aca="false">A311 &amp;" " &amp;"""" &amp;B311 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D311" s="1" t="str">
         <f aca="false">IF(ISBLANK(A311),"",C311)</f>
         <v/>
       </c>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C312" s="1" t="str">
-        <f aca="false">A312 &amp;" " &amp;"""" &amp;B312 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D312" s="1" t="str">
         <f aca="false">IF(ISBLANK(A312),"",C312)</f>
         <v/>
       </c>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C313" s="1" t="str">
-        <f aca="false">A313 &amp;" " &amp;"""" &amp;B313 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D313" s="1" t="str">
         <f aca="false">IF(ISBLANK(A313),"",C313)</f>
         <v/>
       </c>
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C314" s="1" t="str">
-        <f aca="false">A314 &amp;" " &amp;"""" &amp;B314 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D314" s="1" t="str">
         <f aca="false">IF(ISBLANK(A314),"",C314)</f>
         <v/>
       </c>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C315" s="1" t="str">
-        <f aca="false">A315 &amp;" " &amp;"""" &amp;B315 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D315" s="1" t="str">
         <f aca="false">IF(ISBLANK(A315),"",C315)</f>
         <v/>
       </c>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C316" s="1" t="str">
-        <f aca="false">A316 &amp;" " &amp;"""" &amp;B316 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D316" s="1" t="str">
         <f aca="false">IF(ISBLANK(A316),"",C316)</f>
         <v/>
       </c>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C317" s="1" t="str">
-        <f aca="false">A317 &amp;" " &amp;"""" &amp;B317 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D317" s="1" t="str">
         <f aca="false">IF(ISBLANK(A317),"",C317)</f>
         <v/>
       </c>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C318" s="1" t="str">
-        <f aca="false">A318 &amp;" " &amp;"""" &amp;B318 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D318" s="1" t="str">
         <f aca="false">IF(ISBLANK(A318),"",C318)</f>
         <v/>
       </c>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C319" s="1" t="str">
-        <f aca="false">A319 &amp;" " &amp;"""" &amp;B319 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D319" s="1" t="str">
         <f aca="false">IF(ISBLANK(A319),"",C319)</f>
         <v/>
       </c>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C320" s="1" t="str">
-        <f aca="false">A320 &amp;" " &amp;"""" &amp;B320 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D320" s="1" t="str">
         <f aca="false">IF(ISBLANK(A320),"",C320)</f>
         <v/>
       </c>
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C321" s="1" t="str">
-        <f aca="false">A321 &amp;" " &amp;"""" &amp;B321 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D321" s="1" t="str">
         <f aca="false">IF(ISBLANK(A321),"",C321)</f>
         <v/>
       </c>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C322" s="1" t="str">
-        <f aca="false">A322 &amp;" " &amp;"""" &amp;B322 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D322" s="1" t="str">
         <f aca="false">IF(ISBLANK(A322),"",C322)</f>
         <v/>
       </c>
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C323" s="1" t="str">
-        <f aca="false">A323 &amp;" " &amp;"""" &amp;B323 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D323" s="1" t="str">
         <f aca="false">IF(ISBLANK(A323),"",C323)</f>
         <v/>
       </c>
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C324" s="1" t="str">
-        <f aca="false">A324 &amp;" " &amp;"""" &amp;B324 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D324" s="1" t="str">
         <f aca="false">IF(ISBLANK(A324),"",C324)</f>
         <v/>
       </c>
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C325" s="1" t="str">
-        <f aca="false">A325 &amp;" " &amp;"""" &amp;B325 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D325" s="1" t="str">
         <f aca="false">IF(ISBLANK(A325),"",C325)</f>
         <v/>
       </c>
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C326" s="1" t="str">
-        <f aca="false">A326 &amp;" " &amp;"""" &amp;B326 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D326" s="1" t="str">
         <f aca="false">IF(ISBLANK(A326),"",C326)</f>
         <v/>
       </c>
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C327" s="1" t="str">
-        <f aca="false">A327 &amp;" " &amp;"""" &amp;B327 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D327" s="1" t="str">
         <f aca="false">IF(ISBLANK(A327),"",C327)</f>
         <v/>
       </c>
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C328" s="1" t="str">
-        <f aca="false">A328 &amp;" " &amp;"""" &amp;B328 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D328" s="1" t="str">
         <f aca="false">IF(ISBLANK(A328),"",C328)</f>
         <v/>
       </c>
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C329" s="1" t="str">
-        <f aca="false">A329 &amp;" " &amp;"""" &amp;B329 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D329" s="1" t="str">
         <f aca="false">IF(ISBLANK(A329),"",C329)</f>
         <v/>
       </c>
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C330" s="1" t="str">
-        <f aca="false">A330 &amp;" " &amp;"""" &amp;B330 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D330" s="1" t="str">
         <f aca="false">IF(ISBLANK(A330),"",C330)</f>
         <v/>
       </c>
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C331" s="1" t="str">
-        <f aca="false">A331 &amp;" " &amp;"""" &amp;B331 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D331" s="1" t="str">
         <f aca="false">IF(ISBLANK(A331),"",C331)</f>
         <v/>
       </c>
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C332" s="1" t="str">
-        <f aca="false">A332 &amp;" " &amp;"""" &amp;B332 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D332" s="1" t="str">
         <f aca="false">IF(ISBLANK(A332),"",C332)</f>
         <v/>
       </c>
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C333" s="1" t="str">
-        <f aca="false">A333 &amp;" " &amp;"""" &amp;B333 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D333" s="1" t="str">
         <f aca="false">IF(ISBLANK(A333),"",C333)</f>
         <v/>
       </c>
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C334" s="1" t="str">
-        <f aca="false">A334 &amp;" " &amp;"""" &amp;B334 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D334" s="1" t="str">
         <f aca="false">IF(ISBLANK(A334),"",C334)</f>
         <v/>
       </c>
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C335" s="1" t="str">
-        <f aca="false">A335 &amp;" " &amp;"""" &amp;B335 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D335" s="1" t="str">
         <f aca="false">IF(ISBLANK(A335),"",C335)</f>
         <v/>
       </c>
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C336" s="1" t="str">
-        <f aca="false">A336 &amp;" " &amp;"""" &amp;B336 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D336" s="1" t="str">
         <f aca="false">IF(ISBLANK(A336),"",C336)</f>
         <v/>
       </c>
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C337" s="1" t="str">
-        <f aca="false">A337 &amp;" " &amp;"""" &amp;B337 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D337" s="1" t="str">
         <f aca="false">IF(ISBLANK(A337),"",C337)</f>
         <v/>
       </c>
     </row>
     <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C338" s="1" t="str">
-        <f aca="false">A338 &amp;" " &amp;"""" &amp;B338 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D338" s="1" t="str">
         <f aca="false">IF(ISBLANK(A338),"",C338)</f>
         <v/>
       </c>
     </row>
     <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C339" s="1" t="str">
-        <f aca="false">A339 &amp;" " &amp;"""" &amp;B339 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D339" s="1" t="str">
         <f aca="false">IF(ISBLANK(A339),"",C339)</f>
         <v/>
       </c>
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C340" s="1" t="str">
-        <f aca="false">A340 &amp;" " &amp;"""" &amp;B340 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D340" s="1" t="str">
         <f aca="false">IF(ISBLANK(A340),"",C340)</f>
         <v/>
       </c>
     </row>
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C341" s="1" t="str">
-        <f aca="false">A341 &amp;" " &amp;"""" &amp;B341 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D341" s="1" t="str">
         <f aca="false">IF(ISBLANK(A341),"",C341)</f>
         <v/>
       </c>
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C342" s="1" t="str">
-        <f aca="false">A342 &amp;" " &amp;"""" &amp;B342 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D342" s="1" t="str">
         <f aca="false">IF(ISBLANK(A342),"",C342)</f>
         <v/>
       </c>
     </row>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C343" s="1" t="str">
-        <f aca="false">A343 &amp;" " &amp;"""" &amp;B343 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D343" s="1" t="str">
         <f aca="false">IF(ISBLANK(A343),"",C343)</f>
         <v/>
       </c>
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C344" s="1" t="str">
-        <f aca="false">A344 &amp;" " &amp;"""" &amp;B344 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D344" s="1" t="str">
         <f aca="false">IF(ISBLANK(A344),"",C344)</f>
         <v/>
       </c>
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C345" s="1" t="str">
-        <f aca="false">A345 &amp;" " &amp;"""" &amp;B345 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D345" s="1" t="str">
         <f aca="false">IF(ISBLANK(A345),"",C345)</f>
         <v/>
       </c>
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C346" s="1" t="str">
-        <f aca="false">A346 &amp;" " &amp;"""" &amp;B346 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D346" s="1" t="str">
         <f aca="false">IF(ISBLANK(A346),"",C346)</f>
         <v/>
       </c>
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C347" s="1" t="str">
-        <f aca="false">A347 &amp;" " &amp;"""" &amp;B347 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D347" s="1" t="str">
         <f aca="false">IF(ISBLANK(A347),"",C347)</f>
         <v/>
       </c>
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C348" s="1" t="str">
-        <f aca="false">A348 &amp;" " &amp;"""" &amp;B348 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D348" s="1" t="str">
         <f aca="false">IF(ISBLANK(A348),"",C348)</f>
         <v/>
       </c>
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C349" s="1" t="str">
-        <f aca="false">A349 &amp;" " &amp;"""" &amp;B349 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D349" s="1" t="str">
         <f aca="false">IF(ISBLANK(A349),"",C349)</f>
         <v/>
       </c>
     </row>
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C350" s="1" t="str">
-        <f aca="false">A350 &amp;" " &amp;"""" &amp;B350 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D350" s="1" t="str">
         <f aca="false">IF(ISBLANK(A350),"",C350)</f>
         <v/>
       </c>
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C351" s="1" t="str">
-        <f aca="false">A351 &amp;" " &amp;"""" &amp;B351 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D351" s="1" t="str">
         <f aca="false">IF(ISBLANK(A351),"",C351)</f>
         <v/>
       </c>
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C352" s="1" t="str">
-        <f aca="false">A352 &amp;" " &amp;"""" &amp;B352 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D352" s="1" t="str">
         <f aca="false">IF(ISBLANK(A352),"",C352)</f>
         <v/>
       </c>
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C353" s="1" t="str">
-        <f aca="false">A353 &amp;" " &amp;"""" &amp;B353 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D353" s="1" t="str">
         <f aca="false">IF(ISBLANK(A353),"",C353)</f>
         <v/>
       </c>
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C354" s="1" t="str">
-        <f aca="false">A354 &amp;" " &amp;"""" &amp;B354 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D354" s="1" t="str">
         <f aca="false">IF(ISBLANK(A354),"",C354)</f>
         <v/>
       </c>
     </row>
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C355" s="1" t="str">
-        <f aca="false">A355 &amp;" " &amp;"""" &amp;B355 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D355" s="1" t="str">
         <f aca="false">IF(ISBLANK(A355),"",C355)</f>
         <v/>
       </c>
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C356" s="1" t="str">
-        <f aca="false">A356 &amp;" " &amp;"""" &amp;B356 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D356" s="1" t="str">
         <f aca="false">IF(ISBLANK(A356),"",C356)</f>
         <v/>
       </c>
     </row>
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C357" s="1" t="str">
-        <f aca="false">A357 &amp;" " &amp;"""" &amp;B357 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D357" s="1" t="str">
         <f aca="false">IF(ISBLANK(A357),"",C357)</f>
         <v/>
       </c>
     </row>
     <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C358" s="1" t="str">
-        <f aca="false">A358 &amp;" " &amp;"""" &amp;B358 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D358" s="1" t="str">
         <f aca="false">IF(ISBLANK(A358),"",C358)</f>
         <v/>
       </c>
     </row>
     <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C359" s="1" t="str">
-        <f aca="false">A359 &amp;" " &amp;"""" &amp;B359 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D359" s="1" t="str">
         <f aca="false">IF(ISBLANK(A359),"",C359)</f>
         <v/>
       </c>
     </row>
     <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C360" s="1" t="str">
-        <f aca="false">A360 &amp;" " &amp;"""" &amp;B360 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D360" s="1" t="str">
         <f aca="false">IF(ISBLANK(A360),"",C360)</f>
         <v/>
       </c>
     </row>
     <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C361" s="1" t="str">
-        <f aca="false">A361 &amp;" " &amp;"""" &amp;B361 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D361" s="1" t="str">
         <f aca="false">IF(ISBLANK(A361),"",C361)</f>
         <v/>
       </c>
     </row>
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C362" s="1" t="str">
-        <f aca="false">A362 &amp;" " &amp;"""" &amp;B362 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D362" s="1" t="str">
         <f aca="false">IF(ISBLANK(A362),"",C362)</f>
         <v/>
       </c>
     </row>
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C363" s="1" t="str">
-        <f aca="false">A363 &amp;" " &amp;"""" &amp;B363 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D363" s="1" t="str">
         <f aca="false">IF(ISBLANK(A363),"",C363)</f>
         <v/>
       </c>
     </row>
     <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C364" s="1" t="str">
-        <f aca="false">A364 &amp;" " &amp;"""" &amp;B364 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D364" s="1" t="str">
         <f aca="false">IF(ISBLANK(A364),"",C364)</f>
         <v/>
       </c>
     </row>
     <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C365" s="1" t="str">
-        <f aca="false">A365 &amp;" " &amp;"""" &amp;B365 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D365" s="1" t="str">
         <f aca="false">IF(ISBLANK(A365),"",C365)</f>
         <v/>
       </c>
     </row>
     <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C366" s="1" t="str">
-        <f aca="false">A366 &amp;" " &amp;"""" &amp;B366 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D366" s="1" t="str">
         <f aca="false">IF(ISBLANK(A366),"",C366)</f>
         <v/>
       </c>
     </row>
     <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C367" s="1" t="str">
-        <f aca="false">A367 &amp;" " &amp;"""" &amp;B367 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D367" s="1" t="str">
         <f aca="false">IF(ISBLANK(A367),"",C367)</f>
         <v/>
       </c>
     </row>
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C368" s="1" t="str">
-        <f aca="false">A368 &amp;" " &amp;"""" &amp;B368 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D368" s="1" t="str">
         <f aca="false">IF(ISBLANK(A368),"",C368)</f>
         <v/>
       </c>
     </row>
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C369" s="1" t="str">
-        <f aca="false">A369 &amp;" " &amp;"""" &amp;B369 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D369" s="1" t="str">
         <f aca="false">IF(ISBLANK(A369),"",C369)</f>
         <v/>
       </c>
     </row>
     <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C370" s="1" t="str">
-        <f aca="false">A370 &amp;" " &amp;"""" &amp;B370 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D370" s="1" t="str">
         <f aca="false">IF(ISBLANK(A370),"",C370)</f>
         <v/>
       </c>
     </row>
     <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C371" s="1" t="str">
-        <f aca="false">A371 &amp;" " &amp;"""" &amp;B371 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D371" s="1" t="str">
         <f aca="false">IF(ISBLANK(A371),"",C371)</f>
         <v/>
       </c>
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C372" s="1" t="str">
-        <f aca="false">A372 &amp;" " &amp;"""" &amp;B372 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D372" s="1" t="str">
         <f aca="false">IF(ISBLANK(A372),"",C372)</f>
         <v/>
       </c>
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C373" s="1" t="str">
-        <f aca="false">A373 &amp;" " &amp;"""" &amp;B373 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D373" s="1" t="str">
         <f aca="false">IF(ISBLANK(A373),"",C373)</f>
         <v/>
       </c>
     </row>
     <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C374" s="1" t="str">
-        <f aca="false">A374 &amp;" " &amp;"""" &amp;B374 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D374" s="1" t="str">
         <f aca="false">IF(ISBLANK(A374),"",C374)</f>
         <v/>
       </c>
     </row>
     <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C375" s="1" t="str">
-        <f aca="false">A375 &amp;" " &amp;"""" &amp;B375 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D375" s="1" t="str">
         <f aca="false">IF(ISBLANK(A375),"",C375)</f>
         <v/>
       </c>
     </row>
     <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C376" s="1" t="str">
-        <f aca="false">A376 &amp;" " &amp;"""" &amp;B376 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D376" s="1" t="str">
         <f aca="false">IF(ISBLANK(A376),"",C376)</f>
         <v/>
       </c>
     </row>
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C377" s="1" t="str">
-        <f aca="false">A377 &amp;" " &amp;"""" &amp;B377 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D377" s="1" t="str">
         <f aca="false">IF(ISBLANK(A377),"",C377)</f>
         <v/>
       </c>
     </row>
     <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C378" s="1" t="str">
-        <f aca="false">A378 &amp;" " &amp;"""" &amp;B378 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D378" s="1" t="str">
         <f aca="false">IF(ISBLANK(A378),"",C378)</f>
         <v/>
       </c>
     </row>
     <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C379" s="1" t="str">
-        <f aca="false">A379 &amp;" " &amp;"""" &amp;B379 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D379" s="1" t="str">
         <f aca="false">IF(ISBLANK(A379),"",C379)</f>
         <v/>
       </c>
     </row>
     <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C380" s="1" t="str">
-        <f aca="false">A380 &amp;" " &amp;"""" &amp;B380 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D380" s="1" t="str">
         <f aca="false">IF(ISBLANK(A380),"",C380)</f>
         <v/>
       </c>
     </row>
     <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C381" s="1" t="str">
-        <f aca="false">A381 &amp;" " &amp;"""" &amp;B381 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D381" s="1" t="str">
         <f aca="false">IF(ISBLANK(A381),"",C381)</f>
         <v/>
       </c>
     </row>
     <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C382" s="1" t="str">
-        <f aca="false">A382 &amp;" " &amp;"""" &amp;B382 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D382" s="1" t="str">
         <f aca="false">IF(ISBLANK(A382),"",C382)</f>
         <v/>
       </c>
     </row>
     <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C383" s="1" t="str">
-        <f aca="false">A383 &amp;" " &amp;"""" &amp;B383 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D383" s="1" t="str">
         <f aca="false">IF(ISBLANK(A383),"",C383)</f>
         <v/>
       </c>
     </row>
     <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C384" s="1" t="str">
-        <f aca="false">A384 &amp;" " &amp;"""" &amp;B384 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D384" s="1" t="str">
         <f aca="false">IF(ISBLANK(A384),"",C384)</f>
         <v/>
       </c>
     </row>
     <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C385" s="1" t="str">
-        <f aca="false">A385 &amp;" " &amp;"""" &amp;B385 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D385" s="1" t="str">
         <f aca="false">IF(ISBLANK(A385),"",C385)</f>
         <v/>
       </c>
     </row>
     <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C386" s="1" t="str">
-        <f aca="false">A386 &amp;" " &amp;"""" &amp;B386 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D386" s="1" t="str">
         <f aca="false">IF(ISBLANK(A386),"",C386)</f>
         <v/>
       </c>
     </row>
     <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C387" s="1" t="str">
-        <f aca="false">A387 &amp;" " &amp;"""" &amp;B387 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D387" s="1" t="str">
         <f aca="false">IF(ISBLANK(A387),"",C387)</f>
         <v/>
       </c>
     </row>
     <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C388" s="1" t="str">
-        <f aca="false">A388 &amp;" " &amp;"""" &amp;B388 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D388" s="1" t="str">
         <f aca="false">IF(ISBLANK(A388),"",C388)</f>
         <v/>
       </c>
     </row>
     <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C389" s="1" t="str">
-        <f aca="false">A389 &amp;" " &amp;"""" &amp;B389 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D389" s="1" t="str">
         <f aca="false">IF(ISBLANK(A389),"",C389)</f>
         <v/>
       </c>
     </row>
     <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C390" s="1" t="str">
-        <f aca="false">A390 &amp;" " &amp;"""" &amp;B390 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D390" s="1" t="str">
         <f aca="false">IF(ISBLANK(A390),"",C390)</f>
         <v/>
       </c>
     </row>
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C391" s="1" t="str">
-        <f aca="false">A391 &amp;" " &amp;"""" &amp;B391 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D391" s="1" t="str">
         <f aca="false">IF(ISBLANK(A391),"",C391)</f>
         <v/>
       </c>
     </row>
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C392" s="1" t="str">
-        <f aca="false">A392 &amp;" " &amp;"""" &amp;B392 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D392" s="1" t="str">
         <f aca="false">IF(ISBLANK(A392),"",C392)</f>
         <v/>
       </c>
     </row>
     <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C393" s="1" t="str">
-        <f aca="false">A393 &amp;" " &amp;"""" &amp;B393 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D393" s="1" t="str">
         <f aca="false">IF(ISBLANK(A393),"",C393)</f>
         <v/>
       </c>
     </row>
     <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C394" s="1" t="str">
-        <f aca="false">A394 &amp;" " &amp;"""" &amp;B394 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D394" s="1" t="str">
         <f aca="false">IF(ISBLANK(A394),"",C394)</f>
         <v/>
       </c>
     </row>
     <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C395" s="1" t="str">
-        <f aca="false">A395 &amp;" " &amp;"""" &amp;B395 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D395" s="1" t="str">
         <f aca="false">IF(ISBLANK(A395),"",C395)</f>
         <v/>
       </c>
     </row>
     <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C396" s="1" t="str">
-        <f aca="false">A396 &amp;" " &amp;"""" &amp;B396 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D396" s="1" t="str">
         <f aca="false">IF(ISBLANK(A396),"",C396)</f>
         <v/>
       </c>
     </row>
     <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C397" s="1" t="str">
-        <f aca="false">A397 &amp;" " &amp;"""" &amp;B397 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D397" s="1" t="str">
         <f aca="false">IF(ISBLANK(A397),"",C397)</f>
         <v/>
       </c>
     </row>
     <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C398" s="1" t="str">
-        <f aca="false">A398 &amp;" " &amp;"""" &amp;B398 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D398" s="1" t="str">
         <f aca="false">IF(ISBLANK(A398),"",C398)</f>
         <v/>
       </c>
     </row>
     <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C399" s="1" t="str">
-        <f aca="false">A399 &amp;" " &amp;"""" &amp;B399 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D399" s="1" t="str">
         <f aca="false">IF(ISBLANK(A399),"",C399)</f>
         <v/>
       </c>
     </row>
     <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C400" s="1" t="str">
-        <f aca="false">A400 &amp;" " &amp;"""" &amp;B400 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D400" s="1" t="str">
         <f aca="false">IF(ISBLANK(A400),"",C400)</f>
         <v/>
       </c>
     </row>
     <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C401" s="1" t="str">
-        <f aca="false">A401 &amp;" " &amp;"""" &amp;B401 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D401" s="1" t="str">
         <f aca="false">IF(ISBLANK(A401),"",C401)</f>
         <v/>
       </c>
     </row>
     <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C402" s="1" t="str">
-        <f aca="false">A402 &amp;" " &amp;"""" &amp;B402 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D402" s="1" t="str">
         <f aca="false">IF(ISBLANK(A402),"",C402)</f>
         <v/>
       </c>
     </row>
     <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C403" s="1" t="str">
-        <f aca="false">A403 &amp;" " &amp;"""" &amp;B403 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D403" s="1" t="str">
         <f aca="false">IF(ISBLANK(A403),"",C403)</f>
         <v/>
       </c>
     </row>
     <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C404" s="1" t="str">
-        <f aca="false">A404 &amp;" " &amp;"""" &amp;B404 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D404" s="1" t="str">
         <f aca="false">IF(ISBLANK(A404),"",C404)</f>
         <v/>
       </c>
     </row>
     <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C405" s="1" t="str">
-        <f aca="false">A405 &amp;" " &amp;"""" &amp;B405 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D405" s="1" t="str">
         <f aca="false">IF(ISBLANK(A405),"",C405)</f>
         <v/>
       </c>
     </row>
     <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C406" s="1" t="str">
-        <f aca="false">A406 &amp;" " &amp;"""" &amp;B406 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D406" s="1" t="str">
         <f aca="false">IF(ISBLANK(A406),"",C406)</f>
         <v/>
       </c>
     </row>
     <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C407" s="1" t="str">
-        <f aca="false">A407 &amp;" " &amp;"""" &amp;B407 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D407" s="1" t="str">
         <f aca="false">IF(ISBLANK(A407),"",C407)</f>
         <v/>
       </c>
     </row>
     <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C408" s="1" t="str">
-        <f aca="false">A408 &amp;" " &amp;"""" &amp;B408 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D408" s="1" t="str">
         <f aca="false">IF(ISBLANK(A408),"",C408)</f>
         <v/>
       </c>
     </row>
     <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C409" s="1" t="str">
-        <f aca="false">A409 &amp;" " &amp;"""" &amp;B409 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D409" s="1" t="str">
         <f aca="false">IF(ISBLANK(A409),"",C409)</f>
         <v/>
       </c>
     </row>
     <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C410" s="1" t="str">
-        <f aca="false">A410 &amp;" " &amp;"""" &amp;B410 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D410" s="1" t="str">
         <f aca="false">IF(ISBLANK(A410),"",C410)</f>
         <v/>
       </c>
     </row>
     <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C411" s="1" t="str">
-        <f aca="false">A411 &amp;" " &amp;"""" &amp;B411 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D411" s="1" t="str">
         <f aca="false">IF(ISBLANK(A411),"",C411)</f>
         <v/>
       </c>
     </row>
     <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C412" s="1" t="str">
-        <f aca="false">A412 &amp;" " &amp;"""" &amp;B412 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D412" s="1" t="str">
         <f aca="false">IF(ISBLANK(A412),"",C412)</f>
         <v/>
       </c>
     </row>
     <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C413" s="1" t="str">
-        <f aca="false">A413 &amp;" " &amp;"""" &amp;B413 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D413" s="1" t="str">
         <f aca="false">IF(ISBLANK(A413),"",C413)</f>
         <v/>
       </c>
     </row>
     <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C414" s="1" t="str">
-        <f aca="false">A414 &amp;" " &amp;"""" &amp;B414 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D414" s="1" t="str">
         <f aca="false">IF(ISBLANK(A414),"",C414)</f>
         <v/>
       </c>
     </row>
     <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C415" s="1" t="str">
-        <f aca="false">A415 &amp;" " &amp;"""" &amp;B415 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D415" s="1" t="str">
         <f aca="false">IF(ISBLANK(A415),"",C415)</f>
         <v/>
       </c>
     </row>
     <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C416" s="1" t="str">
-        <f aca="false">A416 &amp;" " &amp;"""" &amp;B416 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D416" s="1" t="str">
         <f aca="false">IF(ISBLANK(A416),"",C416)</f>
         <v/>
       </c>
     </row>
     <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C417" s="1" t="str">
-        <f aca="false">A417 &amp;" " &amp;"""" &amp;B417 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D417" s="1" t="str">
         <f aca="false">IF(ISBLANK(A417),"",C417)</f>
         <v/>
       </c>
     </row>
     <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C418" s="1" t="str">
-        <f aca="false">A418 &amp;" " &amp;"""" &amp;B418 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D418" s="1" t="str">
         <f aca="false">IF(ISBLANK(A418),"",C418)</f>
         <v/>
       </c>
     </row>
     <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C419" s="1" t="str">
-        <f aca="false">A419 &amp;" " &amp;"""" &amp;B419 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D419" s="1" t="str">
         <f aca="false">IF(ISBLANK(A419),"",C419)</f>
         <v/>
       </c>
     </row>
     <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C420" s="1" t="str">
-        <f aca="false">A420 &amp;" " &amp;"""" &amp;B420 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D420" s="1" t="str">
         <f aca="false">IF(ISBLANK(A420),"",C420)</f>
         <v/>
       </c>
     </row>
     <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C421" s="1" t="str">
-        <f aca="false">A421 &amp;" " &amp;"""" &amp;B421 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D421" s="1" t="str">
         <f aca="false">IF(ISBLANK(A421),"",C421)</f>
         <v/>
       </c>
     </row>
     <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C422" s="1" t="str">
-        <f aca="false">A422 &amp;" " &amp;"""" &amp;B422 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D422" s="1" t="str">
         <f aca="false">IF(ISBLANK(A422),"",C422)</f>
         <v/>
       </c>
     </row>
     <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C423" s="1" t="str">
-        <f aca="false">A423 &amp;" " &amp;"""" &amp;B423 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D423" s="1" t="str">
         <f aca="false">IF(ISBLANK(A423),"",C423)</f>
         <v/>
       </c>
     </row>
     <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C424" s="1" t="str">
-        <f aca="false">A424 &amp;" " &amp;"""" &amp;B424 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D424" s="1" t="str">
         <f aca="false">IF(ISBLANK(A424),"",C424)</f>
         <v/>
       </c>
     </row>
     <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C425" s="1" t="str">
-        <f aca="false">A425 &amp;" " &amp;"""" &amp;B425 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D425" s="1" t="str">
         <f aca="false">IF(ISBLANK(A425),"",C425)</f>
         <v/>
       </c>
     </row>
     <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C426" s="1" t="str">
-        <f aca="false">A426 &amp;" " &amp;"""" &amp;B426 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D426" s="1" t="str">
         <f aca="false">IF(ISBLANK(A426),"",C426)</f>
         <v/>
       </c>
     </row>
     <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C427" s="1" t="str">
-        <f aca="false">A427 &amp;" " &amp;"""" &amp;B427 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D427" s="1" t="str">
         <f aca="false">IF(ISBLANK(A427),"",C427)</f>
         <v/>
       </c>
     </row>
     <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C428" s="1" t="str">
-        <f aca="false">A428 &amp;" " &amp;"""" &amp;B428 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D428" s="1" t="str">
         <f aca="false">IF(ISBLANK(A428),"",C428)</f>
         <v/>
       </c>
     </row>
     <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C429" s="1" t="str">
-        <f aca="false">A429 &amp;" " &amp;"""" &amp;B429 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D429" s="1" t="str">
         <f aca="false">IF(ISBLANK(A429),"",C429)</f>
         <v/>
       </c>
     </row>
     <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C430" s="1" t="str">
-        <f aca="false">A430 &amp;" " &amp;"""" &amp;B430 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D430" s="1" t="str">
         <f aca="false">IF(ISBLANK(A430),"",C430)</f>
         <v/>
       </c>
     </row>
     <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C431" s="1" t="str">
-        <f aca="false">A431 &amp;" " &amp;"""" &amp;B431 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D431" s="1" t="str">
         <f aca="false">IF(ISBLANK(A431),"",C431)</f>
         <v/>
       </c>
     </row>
     <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C432" s="1" t="str">
-        <f aca="false">A432 &amp;" " &amp;"""" &amp;B432 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D432" s="1" t="str">
         <f aca="false">IF(ISBLANK(A432),"",C432)</f>
         <v/>
       </c>
     </row>
     <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C433" s="1" t="str">
-        <f aca="false">A433 &amp;" " &amp;"""" &amp;B433 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D433" s="1" t="str">
         <f aca="false">IF(ISBLANK(A433),"",C433)</f>
         <v/>
       </c>
     </row>
     <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C434" s="1" t="str">
-        <f aca="false">A434 &amp;" " &amp;"""" &amp;B434 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D434" s="1" t="str">
         <f aca="false">IF(ISBLANK(A434),"",C434)</f>
         <v/>
       </c>
     </row>
     <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C435" s="1" t="str">
-        <f aca="false">A435 &amp;" " &amp;"""" &amp;B435 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D435" s="1" t="str">
         <f aca="false">IF(ISBLANK(A435),"",C435)</f>
         <v/>
       </c>
     </row>
     <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C436" s="1" t="str">
-        <f aca="false">A436 &amp;" " &amp;"""" &amp;B436 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D436" s="1" t="str">
         <f aca="false">IF(ISBLANK(A436),"",C436)</f>
         <v/>
       </c>
     </row>
     <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C437" s="1" t="str">
-        <f aca="false">A437 &amp;" " &amp;"""" &amp;B437 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D437" s="1" t="str">
         <f aca="false">IF(ISBLANK(A437),"",C437)</f>
         <v/>
       </c>
     </row>
     <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C438" s="1" t="str">
-        <f aca="false">A438 &amp;" " &amp;"""" &amp;B438 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D438" s="1" t="str">
         <f aca="false">IF(ISBLANK(A438),"",C438)</f>
         <v/>
       </c>
     </row>
     <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C439" s="1" t="str">
-        <f aca="false">A439 &amp;" " &amp;"""" &amp;B439 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D439" s="1" t="str">
         <f aca="false">IF(ISBLANK(A439),"",C439)</f>
         <v/>
       </c>
     </row>
     <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C440" s="1" t="str">
-        <f aca="false">A440 &amp;" " &amp;"""" &amp;B440 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D440" s="1" t="str">
         <f aca="false">IF(ISBLANK(A440),"",C440)</f>
         <v/>
       </c>
     </row>
     <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C441" s="1" t="str">
-        <f aca="false">A441 &amp;" " &amp;"""" &amp;B441 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D441" s="1" t="str">
         <f aca="false">IF(ISBLANK(A441),"",C441)</f>
         <v/>
       </c>
     </row>
     <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C442" s="1" t="str">
-        <f aca="false">A442 &amp;" " &amp;"""" &amp;B442 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D442" s="1" t="str">
         <f aca="false">IF(ISBLANK(A442),"",C442)</f>
         <v/>
       </c>
     </row>
     <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C443" s="1" t="str">
-        <f aca="false">A443 &amp;" " &amp;"""" &amp;B443 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D443" s="1" t="str">
         <f aca="false">IF(ISBLANK(A443),"",C443)</f>
         <v/>
       </c>
     </row>
     <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C444" s="1" t="str">
-        <f aca="false">A444 &amp;" " &amp;"""" &amp;B444 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D444" s="1" t="str">
         <f aca="false">IF(ISBLANK(A444),"",C444)</f>
         <v/>
       </c>
     </row>
     <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C445" s="1" t="str">
-        <f aca="false">A445 &amp;" " &amp;"""" &amp;B445 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D445" s="1" t="str">
         <f aca="false">IF(ISBLANK(A445),"",C445)</f>
         <v/>
       </c>
     </row>
     <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C446" s="1" t="str">
-        <f aca="false">A446 &amp;" " &amp;"""" &amp;B446 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D446" s="1" t="str">
         <f aca="false">IF(ISBLANK(A446),"",C446)</f>
         <v/>
       </c>
     </row>
     <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C447" s="1" t="str">
-        <f aca="false">A447 &amp;" " &amp;"""" &amp;B447 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D447" s="1" t="str">
         <f aca="false">IF(ISBLANK(A447),"",C447)</f>
         <v/>
       </c>
     </row>
     <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C448" s="1" t="str">
-        <f aca="false">A448 &amp;" " &amp;"""" &amp;B448 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D448" s="1" t="str">
         <f aca="false">IF(ISBLANK(A448),"",C448)</f>
         <v/>
       </c>
     </row>
     <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C449" s="1" t="str">
-        <f aca="false">A449 &amp;" " &amp;"""" &amp;B449 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D449" s="1" t="str">
         <f aca="false">IF(ISBLANK(A449),"",C449)</f>
         <v/>
       </c>
     </row>
     <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C450" s="1" t="str">
-        <f aca="false">A450 &amp;" " &amp;"""" &amp;B450 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D450" s="1" t="str">
         <f aca="false">IF(ISBLANK(A450),"",C450)</f>
         <v/>
       </c>
     </row>
     <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C451" s="1" t="str">
-        <f aca="false">A451 &amp;" " &amp;"""" &amp;B451 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D451" s="1" t="str">
         <f aca="false">IF(ISBLANK(A451),"",C451)</f>
         <v/>
       </c>
     </row>
     <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C452" s="1" t="str">
-        <f aca="false">A452 &amp;" " &amp;"""" &amp;B452 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D452" s="1" t="str">
         <f aca="false">IF(ISBLANK(A452),"",C452)</f>
         <v/>
       </c>
     </row>
     <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C453" s="1" t="str">
-        <f aca="false">A453 &amp;" " &amp;"""" &amp;B453 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D453" s="1" t="str">
         <f aca="false">IF(ISBLANK(A453),"",C453)</f>
         <v/>
       </c>
     </row>
     <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C454" s="1" t="str">
-        <f aca="false">A454 &amp;" " &amp;"""" &amp;B454 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D454" s="1" t="str">
         <f aca="false">IF(ISBLANK(A454),"",C454)</f>
         <v/>
       </c>
     </row>
     <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C455" s="1" t="str">
-        <f aca="false">A455 &amp;" " &amp;"""" &amp;B455 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D455" s="1" t="str">
         <f aca="false">IF(ISBLANK(A455),"",C455)</f>
         <v/>
       </c>
     </row>
     <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C456" s="1" t="str">
-        <f aca="false">A456 &amp;" " &amp;"""" &amp;B456 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D456" s="1" t="str">
         <f aca="false">IF(ISBLANK(A456),"",C456)</f>
         <v/>
       </c>
     </row>
     <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C457" s="1" t="str">
-        <f aca="false">A457 &amp;" " &amp;"""" &amp;B457 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D457" s="1" t="str">
         <f aca="false">IF(ISBLANK(A457),"",C457)</f>
         <v/>
       </c>
     </row>
     <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C458" s="1" t="str">
-        <f aca="false">A458 &amp;" " &amp;"""" &amp;B458 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D458" s="1" t="str">
         <f aca="false">IF(ISBLANK(A458),"",C458)</f>
         <v/>
       </c>
     </row>
     <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C459" s="1" t="str">
-        <f aca="false">A459 &amp;" " &amp;"""" &amp;B459 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D459" s="1" t="str">
         <f aca="false">IF(ISBLANK(A459),"",C459)</f>
         <v/>
       </c>
     </row>
     <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C460" s="1" t="str">
-        <f aca="false">A460 &amp;" " &amp;"""" &amp;B460 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D460" s="1" t="str">
         <f aca="false">IF(ISBLANK(A460),"",C460)</f>
         <v/>
       </c>
     </row>
     <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C461" s="1" t="str">
-        <f aca="false">A461 &amp;" " &amp;"""" &amp;B461 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D461" s="1" t="str">
         <f aca="false">IF(ISBLANK(A461),"",C461)</f>
         <v/>
       </c>
     </row>
     <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C462" s="1" t="str">
-        <f aca="false">A462 &amp;" " &amp;"""" &amp;B462 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D462" s="1" t="str">
         <f aca="false">IF(ISBLANK(A462),"",C462)</f>
         <v/>
       </c>
     </row>
     <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C463" s="1" t="str">
-        <f aca="false">A463 &amp;" " &amp;"""" &amp;B463 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D463" s="1" t="str">
         <f aca="false">IF(ISBLANK(A463),"",C463)</f>
         <v/>
       </c>
     </row>
     <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C464" s="1" t="str">
-        <f aca="false">A464 &amp;" " &amp;"""" &amp;B464 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D464" s="1" t="str">
         <f aca="false">IF(ISBLANK(A464),"",C464)</f>
         <v/>
       </c>
     </row>
     <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C465" s="1" t="str">
-        <f aca="false">A465 &amp;" " &amp;"""" &amp;B465 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D465" s="1" t="str">
         <f aca="false">IF(ISBLANK(A465),"",C465)</f>
         <v/>
       </c>
     </row>
     <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C466" s="1" t="str">
-        <f aca="false">A466 &amp;" " &amp;"""" &amp;B466 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D466" s="1" t="str">
         <f aca="false">IF(ISBLANK(A466),"",C466)</f>
         <v/>
       </c>
     </row>
     <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C467" s="1" t="str">
-        <f aca="false">A467 &amp;" " &amp;"""" &amp;B467 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D467" s="1" t="str">
         <f aca="false">IF(ISBLANK(A467),"",C467)</f>
         <v/>
       </c>
     </row>
     <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C468" s="1" t="str">
-        <f aca="false">A468 &amp;" " &amp;"""" &amp;B468 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D468" s="1" t="str">
         <f aca="false">IF(ISBLANK(A468),"",C468)</f>
         <v/>
       </c>
     </row>
     <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C469" s="1" t="str">
-        <f aca="false">A469 &amp;" " &amp;"""" &amp;B469 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D469" s="1" t="str">
         <f aca="false">IF(ISBLANK(A469),"",C469)</f>
         <v/>
       </c>
     </row>
     <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C470" s="1" t="str">
-        <f aca="false">A470 &amp;" " &amp;"""" &amp;B470 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D470" s="1" t="str">
         <f aca="false">IF(ISBLANK(A470),"",C470)</f>
         <v/>
       </c>
     </row>
     <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C471" s="1" t="str">
-        <f aca="false">A471 &amp;" " &amp;"""" &amp;B471 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D471" s="1" t="str">
         <f aca="false">IF(ISBLANK(A471),"",C471)</f>
         <v/>
       </c>
     </row>
     <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C472" s="1" t="str">
-        <f aca="false">A472 &amp;" " &amp;"""" &amp;B472 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D472" s="1" t="str">
         <f aca="false">IF(ISBLANK(A472),"",C472)</f>
         <v/>
       </c>
     </row>
     <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C473" s="1" t="str">
-        <f aca="false">A473 &amp;" " &amp;"""" &amp;B473 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D473" s="1" t="str">
         <f aca="false">IF(ISBLANK(A473),"",C473)</f>
         <v/>
       </c>
     </row>
     <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C474" s="1" t="str">
-        <f aca="false">A474 &amp;" " &amp;"""" &amp;B474 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D474" s="1" t="str">
         <f aca="false">IF(ISBLANK(A474),"",C474)</f>
         <v/>
       </c>
     </row>
     <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C475" s="1" t="str">
-        <f aca="false">A475 &amp;" " &amp;"""" &amp;B475 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D475" s="1" t="str">
         <f aca="false">IF(ISBLANK(A475),"",C475)</f>
         <v/>
       </c>
     </row>
     <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C476" s="1" t="str">
-        <f aca="false">A476 &amp;" " &amp;"""" &amp;B476 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D476" s="1" t="str">
         <f aca="false">IF(ISBLANK(A476),"",C476)</f>
         <v/>
       </c>
     </row>
     <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C477" s="1" t="str">
-        <f aca="false">A477 &amp;" " &amp;"""" &amp;B477 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D477" s="1" t="str">
         <f aca="false">IF(ISBLANK(A477),"",C477)</f>
         <v/>
       </c>
     </row>
     <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C478" s="1" t="str">
-        <f aca="false">A478 &amp;" " &amp;"""" &amp;B478 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D478" s="1" t="str">
         <f aca="false">IF(ISBLANK(A478),"",C478)</f>
         <v/>
       </c>
     </row>
     <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C479" s="1" t="str">
-        <f aca="false">A479 &amp;" " &amp;"""" &amp;B479 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D479" s="1" t="str">
         <f aca="false">IF(ISBLANK(A479),"",C479)</f>
         <v/>
       </c>
     </row>
     <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C480" s="1" t="str">
-        <f aca="false">A480 &amp;" " &amp;"""" &amp;B480 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D480" s="1" t="str">
         <f aca="false">IF(ISBLANK(A480),"",C480)</f>
         <v/>
       </c>
     </row>
     <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C481" s="1" t="str">
-        <f aca="false">A481 &amp;" " &amp;"""" &amp;B481 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D481" s="1" t="str">
         <f aca="false">IF(ISBLANK(A481),"",C481)</f>
         <v/>
       </c>
     </row>
     <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C482" s="1" t="str">
-        <f aca="false">A482 &amp;" " &amp;"""" &amp;B482 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D482" s="1" t="str">
         <f aca="false">IF(ISBLANK(A482),"",C482)</f>
         <v/>
       </c>
     </row>
     <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C483" s="1" t="str">
-        <f aca="false">A483 &amp;" " &amp;"""" &amp;B483 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D483" s="1" t="str">
         <f aca="false">IF(ISBLANK(A483),"",C483)</f>
         <v/>
       </c>
     </row>
     <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C484" s="1" t="str">
-        <f aca="false">A484 &amp;" " &amp;"""" &amp;B484 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D484" s="1" t="str">
         <f aca="false">IF(ISBLANK(A484),"",C484)</f>
         <v/>
       </c>
     </row>
     <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C485" s="1" t="str">
-        <f aca="false">A485 &amp;" " &amp;"""" &amp;B485 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D485" s="1" t="str">
         <f aca="false">IF(ISBLANK(A485),"",C485)</f>
         <v/>
       </c>
     </row>
     <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C486" s="1" t="str">
-        <f aca="false">A486 &amp;" " &amp;"""" &amp;B486 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D486" s="1" t="str">
         <f aca="false">IF(ISBLANK(A486),"",C486)</f>
         <v/>
       </c>
     </row>
     <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C487" s="1" t="str">
-        <f aca="false">A487 &amp;" " &amp;"""" &amp;B487 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D487" s="1" t="str">
         <f aca="false">IF(ISBLANK(A487),"",C487)</f>
         <v/>
       </c>
     </row>
     <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C488" s="1" t="str">
-        <f aca="false">A488 &amp;" " &amp;"""" &amp;B488 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D488" s="1" t="str">
         <f aca="false">IF(ISBLANK(A488),"",C488)</f>
         <v/>
       </c>
     </row>
     <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C489" s="1" t="str">
-        <f aca="false">A489 &amp;" " &amp;"""" &amp;B489 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D489" s="1" t="str">
         <f aca="false">IF(ISBLANK(A489),"",C489)</f>
         <v/>
       </c>
     </row>
     <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C490" s="1" t="str">
-        <f aca="false">A490 &amp;" " &amp;"""" &amp;B490 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D490" s="1" t="str">
         <f aca="false">IF(ISBLANK(A490),"",C490)</f>
         <v/>
       </c>
     </row>
     <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C491" s="1" t="str">
-        <f aca="false">A491 &amp;" " &amp;"""" &amp;B491 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D491" s="1" t="str">
         <f aca="false">IF(ISBLANK(A491),"",C491)</f>
         <v/>
